--- a/05 테스팅/테스트케이스_Palzo.xlsx
+++ b/05 테스팅/테스트케이스_Palzo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="431">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,11 +301,6 @@
     <t>ID : test
 PW : test
 E-mail : guswl9814@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID : ()_-+={[]}
-PW : ()_-+={[]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -449,11 +444,6 @@
   </si>
   <si>
     <t>로그인 창에서 ID/PW찾기 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안내 메시지 출력
--"회원가입이 완료되었습니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -752,14 +742,6 @@
 강의시간 : (NULL)
 강의실 : (NULL)
 단, 모든 입력은 TC0~과 같게 하고, 한번에 하나의 입력만 NULL로 둔다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과목명 : ~`!@#$
-담당교수 : %^&amp;*
-강의학기 : ()_-,+=
-강의시간 : {{}}, {[}], :;"'
-강의실 : &lt;,&gt;.?/|\</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -811,26 +793,6 @@
   </si>
   <si>
     <t>입력값에 특수문자가 포함되어 있을 경우에 대한 처리 확인 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do명 : `~!@#$%^&amp;*()_-+=
-과목선택 : 소프트웨어공학
-마감기한 : 2018,05,04
-실제마감일 : 2015,05,04
-중요도 : ★★★★★
-완료도 : ★★☆☆☆
-알림설정 : 1일전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do명 : {}[]|\:;"'&lt;,&gt;.?/
-과목선택 : 소프트웨어공학
-마감기한 : 2018,05,04
-실제마감일 : 2015,05,04
-중요도 : ★★★★★
-완료도 : ★★☆☆☆
-알림설정 : 1일전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1338,11 +1300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>To-do list  화면에 to-do 항목
-이 추가되어 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>To-do list  화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1373,13 +1330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID : ()_-+={[]}
-PW : ()_-+={[]}
-E-mail : 
-()_-+={[]}@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>안내 메시지 출력
 -"회원가입이 완료되었습니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1388,22 +1338,6 @@
     <t>ID : 123456789
 PW : 123456789
 E-mail : 123456789@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID : ~`!@#$%^&amp;* 
-PW : ~`!@#$%^&amp;*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID : |\:;"'&lt;, &gt;.?/
-PW : |\:;"'&lt;, &gt;.?/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID : |\:;"'&lt;, &gt;.?/
-PW : |\:;"'&lt;, &gt;.?/
-E-mail : smse.test6@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1453,7 +1387,595 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>To-do명 : {}[]|\:;"'&lt;,&gt;.?/
+    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>입력값에 한글(초성)이 포함되어 있을 경
+우에 대한 작동확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력값에 한글이 포함되어 있을 경우에 
+대한 작동확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력값에 대문자가 포함되어 있을 경우에 
+대한 에러검출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자로 이루어진 입력에 대한 작동확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : 韓國
+PW : 韓國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안내 메시지 출력
+-"회원가입이 완료되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : 韓國
+PW : 韓國
+E-mail : 韓國@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>UC009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 메시지 출력
+-"유효하지 않은 정보가 입력되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명이 변경된 To-do list  화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 과목이 삭제된 To-do list  화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list  화면에 to-do 항목이 추가되어 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list  화면에 to-do 항목이 추가되어 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 To-do가 삭제된 To-do list  화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list 화면에서 과목추가 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복되는 강의명이 입력되었을 경우에 대한 에러검출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC075</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.30</t>
+  </si>
+  <si>
+    <t>테스트케이스작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서현지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 테스트 수행결과 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서현지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : ~`!@#$%^&amp;* 
+PW : ~`!@#$%^&amp;*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : |\:;&lt;,?"'
+PW : |\:;&lt;,?"'
+(단 확실한 테스트를 위해 한글자씩도 모두 입력해보도록 한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : ()_-+={[]}./
+PW : ()_-+={[]}./</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : ()_-+={[]}./
+PW : ()_-+={[]}./
+E-mail : 
+()_-+={[]}./@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : |\:;&lt;,?"'
+PW : |\:;&lt;,?"'
+E-mail :  |\:;&lt;,?"'@gmail.com
+(단 확실한 테스트를 위해 한글자씩도 모두 입력해보도록 한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 메시지 출력
+-"유효하지 않은 정보가 입력되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2118.05.30</t>
+  </si>
+  <si>
+    <t>#3043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 테스트 수행결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서현지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#3130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명 : ~`!@#$
+담당교수 : %^&amp;*
+강의학기 : ()_-+=
+강의시간 : {{}}, {[}],
+강의실 : &gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 메시지 출력
+-"유효하지 않은 정보가 입력되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do명 : `~!@#$%^&amp;*()_-+={[]}.&gt;
 과목선택 : 소프트웨어공학
 마감기한 : 2018,05,04
 실제마감일 : 2015,05,04
@@ -1463,516 +1985,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>입력값에 한글(초성)이 포함되어 있을 경
-우에 대한 작동확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력값에 한글이 포함되어 있을 경우에 
-대한 작동확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력값에 대문자가 포함되어 있을 경우에 
-대한 에러검출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한자로 이루어진 입력에 대한 작동확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID : 韓國
-PW : 韓國</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안내 메시지 출력
--"회원가입이 완료되었습니다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID : 韓國
-PW : 韓國
-E-mail : 韓國@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>UC009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에러 메시지 출력
--"유효하지 않은 정보가 입력되었습니다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과목명이 변경된 To-do list  화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 과목이 삭제된 To-do list  화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do list  화면에 to-do 항목이 추가되어 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do list  화면에 to-do 항목이 추가되어 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 To-do가 삭제된 To-do list  화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC031</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC036</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC037</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC039</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC043</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do list 화면에서 과목추가 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복되는 강의명이 입력되었을 경우에 대한 에러검출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC044</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC045</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC048</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC049</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC052</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC054</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC055</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC056</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC057</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC058</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC059</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC062</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC063</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC064</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC065</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC066</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC067</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC069</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC070</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC071</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC072</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC073</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC074</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC075</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC076</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC077</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC078</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC079</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC082</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC083</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.05.30</t>
-  </si>
-  <si>
-    <t>#3001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트케이스작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서현지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.05.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V.1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.05.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 테스트 수행결과 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서현지</t>
+    <t>To-do명 : |\:;"'&lt;,?/
+과목선택 : 소프트웨어공학
+마감기한 : 2018,05,04
+실제마감일 : 2015,05,04
+중요도 : ★★★★★
+완료도 : ★★☆☆☆
+알림설정 : 1일전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1980,7 +1999,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2328,7 +2347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2446,9 +2465,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2463,6 +2479,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2780,40 +2820,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="4" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.200000000000003" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="40.200000000000003">
       <c r="B1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="7.5" customHeight="1"/>
+    <row r="3" spans="1:4" ht="6.75" customHeight="1"/>
+    <row r="4" spans="1:4" ht="21">
       <c r="D4" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="39" t="s">
+    <row r="5" spans="1:4" ht="54" customHeight="1"/>
+    <row r="6" spans="1:4" ht="23.25" customHeight="1">
+      <c r="A6" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-    </row>
-    <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+    </row>
+    <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1">
       <c r="B7" s="18"/>
     </row>
-    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="18" thickBot="1">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -2827,137 +2867,145 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D11" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="6"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4">
       <c r="A13" s="6"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4">
       <c r="A14" s="6"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4">
       <c r="A15" s="6"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4">
       <c r="A16" s="6"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4">
       <c r="A17" s="6"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4">
       <c r="A19" s="6"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4">
       <c r="A20" s="6"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4">
       <c r="A21" s="6"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4">
       <c r="A22" s="6"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4">
       <c r="A23" s="6"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4">
       <c r="A24" s="6"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4">
       <c r="A25" s="6"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4">
       <c r="A26" s="6"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4">
       <c r="A27" s="6"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="18" thickBot="1">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2977,12 +3025,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="5.19921875" customWidth="1"/>
     <col min="2" max="2" width="16.59765625" customWidth="1"/>
@@ -2992,18 +3040,18 @@
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="25.69921875" customWidth="1"/>
     <col min="8" max="8" width="26.59765625" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="9" max="9" width="8" style="45" customWidth="1"/>
     <col min="10" max="10" width="11.8984375" style="4" customWidth="1"/>
     <col min="11" max="11" width="17.69921875" customWidth="1"/>
     <col min="12" max="12" width="111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="30">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -3011,23 +3059,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="21.75" customHeight="1">
       <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
@@ -3059,7 +3107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="78" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
@@ -3076,20 +3124,20 @@
         <v>25</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>310</v>
+      <c r="I8" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="52.2">
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
@@ -3106,22 +3154,20 @@
         <v>36</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>315</v>
+      <c r="I9" s="46" t="s">
+        <v>383</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+        <v>385</v>
+      </c>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="1:11" ht="52.2">
       <c r="B10" s="1" t="s">
         <v>56</v>
       </c>
@@ -3138,22 +3184,20 @@
         <v>37</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>316</v>
+      <c r="I10" s="46" t="s">
+        <v>384</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+        <v>386</v>
+      </c>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" ht="69" customHeight="1">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -3164,26 +3208,26 @@
         <v>39</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>310</v>
+      <c r="I11" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="82.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="82.95" customHeight="1">
       <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
@@ -3200,20 +3244,20 @@
         <v>41</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>310</v>
+      <c r="I12" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="71.400000000000006" customHeight="1">
       <c r="B13" s="1" t="s">
         <v>56</v>
       </c>
@@ -3227,28 +3271,28 @@
         <v>29</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>284</v>
+        <v>387</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>310</v>
+      <c r="I13" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="77.400000000000006" customHeight="1">
       <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>43</v>
@@ -3257,55 +3301,55 @@
         <v>29</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>66</v>
+        <v>390</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>310</v>
+      <c r="I14" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="105" customHeight="1">
       <c r="B15" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>285</v>
+        <v>389</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>302</v>
+        <v>32</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>394</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="75" customHeight="1">
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
@@ -3313,67 +3357,67 @@
         <v>55</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H16" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>321</v>
+      <c r="I16" s="46" t="s">
+        <v>308</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" spans="2:11" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:11" ht="72.599999999999994" customHeight="1">
       <c r="B17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>310</v>
+      <c r="I17" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11" ht="72" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11" ht="72" customHeight="1">
       <c r="B18" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>24</v>
@@ -3382,55 +3426,55 @@
         <v>46</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>310</v>
+      <c r="I18" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:11" ht="67.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:11" ht="67.95" customHeight="1">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>310</v>
+      <c r="I19" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="2:11" ht="67.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" ht="67.95" customHeight="1" thickBot="1">
       <c r="B20" s="34" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>47</v>
@@ -3442,2150 +3486,2140 @@
         <v>48</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="34" t="s">
-        <v>310</v>
+      <c r="I20" s="47" t="s">
+        <v>299</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K20" s="34"/>
     </row>
-    <row r="21" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11" ht="18" customHeight="1">
       <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>103</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>310</v>
+        <v>121</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K21" s="29"/>
     </row>
-    <row r="22" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:11" ht="18" customHeight="1">
       <c r="B22" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>310</v>
+        <v>227</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="2:11" ht="120.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11" ht="120.6" customHeight="1">
       <c r="B23" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>65</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>313</v>
+        <v>70</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>302</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="K23" s="43"/>
-    </row>
-    <row r="24" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
+        <v>374</v>
+      </c>
+      <c r="K23" s="42"/>
+    </row>
+    <row r="24" spans="2:11" ht="104.4">
       <c r="B24" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>314</v>
+      <c r="I24" s="46" t="s">
+        <v>303</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K24" s="22"/>
     </row>
-    <row r="25" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:11" ht="104.4">
       <c r="B25" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>312</v>
+      <c r="I25" s="46" t="s">
+        <v>301</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K25" s="22"/>
     </row>
-    <row r="26" spans="2:11" ht="102" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:11" ht="102" customHeight="1">
       <c r="B26" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H26" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>313</v>
+      <c r="I26" s="46" t="s">
+        <v>302</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K26" s="22"/>
     </row>
-    <row r="27" spans="2:11" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11" ht="139.19999999999999">
       <c r="B27" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>310</v>
+        <v>80</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="2:11" ht="157.94999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:11" ht="157.94999999999999" customHeight="1">
       <c r="B28" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="D28" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>314</v>
+      <c r="I28" s="46" t="s">
+        <v>303</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K28" s="22"/>
     </row>
-    <row r="29" spans="2:11" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:11" ht="156.6">
       <c r="B29" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>310</v>
+        <v>81</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11" ht="104.4">
       <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>317</v>
+        <v>70</v>
+      </c>
+      <c r="I30" s="46" t="s">
+        <v>304</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K30" s="22"/>
     </row>
-    <row r="31" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:11" ht="104.4">
       <c r="B31" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>281</v>
+        <v>391</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>314</v>
+        <v>79</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>303</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11" ht="121.8">
       <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>286</v>
+        <v>392</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>302</v>
+        <v>393</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>396</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
+        <v>386</v>
+      </c>
+      <c r="K32" s="22"/>
+    </row>
+    <row r="33" spans="2:11" ht="104.4">
       <c r="B33" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>312</v>
+        <v>165</v>
+      </c>
+      <c r="I33" s="46" t="s">
+        <v>301</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K33" s="22"/>
     </row>
-    <row r="34" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:11" ht="104.4">
       <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>313</v>
+        <v>275</v>
+      </c>
+      <c r="I34" s="46" t="s">
+        <v>302</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K34" s="22"/>
     </row>
-    <row r="35" spans="2:11" ht="82.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:11" ht="82.95" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>313</v>
+        <v>275</v>
+      </c>
+      <c r="I35" s="46" t="s">
+        <v>302</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="67.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="67.95" customHeight="1">
       <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>314</v>
+        <v>297</v>
+      </c>
+      <c r="I36" s="46" t="s">
+        <v>303</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K36" s="22"/>
     </row>
-    <row r="37" spans="2:11" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:11" ht="115.2" customHeight="1" thickBot="1">
       <c r="B37" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>47</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F37" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I37" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="K37" s="43"/>
+    </row>
+    <row r="38" spans="2:11" ht="40.200000000000003" customHeight="1">
+      <c r="B38" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I38" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="2:11" ht="68.400000000000006" customHeight="1">
+      <c r="B39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I39" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="2:11" ht="74.400000000000006" customHeight="1">
+      <c r="B40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="I40" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="K40" s="22"/>
+    </row>
+    <row r="41" spans="2:11" ht="69" customHeight="1">
+      <c r="B41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="I41" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="K41" s="23"/>
+    </row>
+    <row r="42" spans="2:11" ht="73.2" customHeight="1">
+      <c r="B42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="K42" s="22"/>
+    </row>
+    <row r="43" spans="2:11" ht="78" customHeight="1" thickBot="1">
+      <c r="B43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H43" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="G37" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="H37" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="J37" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="K37" s="44"/>
-    </row>
-    <row r="38" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F38" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="H38" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="J38" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="2:11" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K39" s="12"/>
-    </row>
-    <row r="40" spans="2:11" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K40" s="22"/>
-    </row>
-    <row r="41" spans="2:11" ht="69" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K41" s="23" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="73.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G42" s="21" t="s">
+      <c r="I43" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="2:11" ht="18" customHeight="1">
+      <c r="B44" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="H42" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K42" s="22"/>
-    </row>
-    <row r="43" spans="2:11" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H43" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="29" t="s">
-        <v>128</v>
-      </c>
       <c r="C44" s="29" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D44" s="33" t="s">
         <v>64</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F44" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H44" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="G44" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="H44" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="I44" s="29" t="s">
-        <v>310</v>
+      <c r="I44" s="49" t="s">
+        <v>299</v>
       </c>
       <c r="J44" s="31" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K44" s="29"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:11">
       <c r="B45" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>310</v>
+      <c r="I45" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="2:11" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:11" ht="121.8">
       <c r="B46" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F46" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="I46" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="2:11" ht="156.6">
+      <c r="B47" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I47" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="K47" s="42" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="87">
+      <c r="B48" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="G48" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="G46" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="2:11" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B47" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="I47" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="K47" s="43" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="87" x14ac:dyDescent="0.4">
-      <c r="B48" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="G48" s="21" t="s">
+      <c r="H48" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="I48" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="2:12" ht="105" thickBot="1">
+      <c r="B49" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D49" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="H48" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="2:12" ht="105" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>138</v>
-      </c>
       <c r="E49" s="21" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>310</v>
+        <v>232</v>
+      </c>
+      <c r="I49" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="2:12" ht="122.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:12" ht="122.4" thickBot="1">
       <c r="B50" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="F50" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I50" s="46" t="s">
+        <v>396</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="K50" s="22"/>
+    </row>
+    <row r="51" spans="2:12" ht="39.6" customHeight="1">
+      <c r="B51" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="G50" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K50" s="22" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="29" t="s">
-        <v>146</v>
-      </c>
       <c r="C51" s="29" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="D51" s="33" t="s">
         <v>64</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="I51" s="29" t="s">
-        <v>310</v>
+        <v>250</v>
+      </c>
+      <c r="I51" s="49" t="s">
+        <v>299</v>
       </c>
       <c r="J51" s="31" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K51" s="29"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:12">
       <c r="B52" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>310</v>
+      <c r="I52" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="2:12" ht="122.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:12" ht="122.4" thickBot="1">
       <c r="B53" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D53" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>302</v>
+        <v>270</v>
+      </c>
+      <c r="I53" s="46" t="s">
+        <v>291</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K53" s="23" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" ht="174" x14ac:dyDescent="0.4">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="174">
       <c r="B54" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="D54" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E54" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="H54" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="I54" s="25" t="s">
-        <v>302</v>
+      <c r="I54" s="44" t="s">
+        <v>291</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="K54" s="43" t="s">
-        <v>396</v>
+        <v>386</v>
+      </c>
+      <c r="K54" s="42" t="s">
+        <v>400</v>
       </c>
       <c r="L54" s="37"/>
     </row>
-    <row r="55" spans="2:12" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:12" ht="104.4">
       <c r="B55" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H55" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="I55" s="46" t="s">
         <v>291</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="J55" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K55" s="23" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" ht="174" x14ac:dyDescent="0.4">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" ht="174">
       <c r="B56" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D56" s="21" t="s">
         <v>44</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F56" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="I56" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="K56" s="23" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="122.4" thickBot="1">
+      <c r="B57" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="F57" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="G56" s="21" t="s">
+      <c r="G57" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H57" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="H56" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K56" s="23" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" ht="122.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="1" t="s">
+      <c r="I57" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="K57" s="23" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="35.4" thickBot="1">
+      <c r="B58" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="F58" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="C57" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="G57" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="H57" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K57" s="23" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="40" t="s">
+      <c r="G58" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="40" t="s">
-        <v>357</v>
-      </c>
-      <c r="D58" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="F58" s="40" t="s">
+      <c r="H58" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="I58" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="J58" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="K58" s="39"/>
+      <c r="L58" s="38"/>
+    </row>
+    <row r="59" spans="2:12" ht="18" customHeight="1">
+      <c r="B59" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="G58" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="H58" s="41" t="s">
-        <v>323</v>
-      </c>
-      <c r="I58" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="J58" s="42" t="s">
-        <v>387</v>
-      </c>
-      <c r="K58" s="40"/>
-      <c r="L58" s="38"/>
-    </row>
-    <row r="59" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="12" t="s">
-        <v>150</v>
-      </c>
       <c r="C59" s="12" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E59" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="H59" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G59" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>310</v>
+      <c r="I59" s="44" t="s">
+        <v>299</v>
       </c>
       <c r="J59" s="25" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:12">
       <c r="B60" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>310</v>
+      <c r="I60" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="2:12" ht="205.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:12" ht="205.95" customHeight="1">
       <c r="B61" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D61" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F61" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="I61" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="K61" s="22" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" ht="226.2">
+      <c r="B62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H62" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I62" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K62" s="12"/>
+    </row>
+    <row r="63" spans="2:12" ht="202.2" customHeight="1">
+      <c r="B63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="I63" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="K63" s="12"/>
+    </row>
+    <row r="64" spans="2:12" ht="198" customHeight="1">
+      <c r="B64" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="D64" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="G61" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="H61" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K61" s="22" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" ht="226.2" x14ac:dyDescent="0.4">
-      <c r="B62" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>361</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="G62" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="H62" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="I62" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="J62" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="K62" s="12" t="s">
+      <c r="E64" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="I64" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="2:12" ht="203.4" customHeight="1">
+      <c r="B65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="I65" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="J65" s="5" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="63" spans="2:12" ht="202.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="F63" s="24" t="s">
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="2:12" ht="180.6" customHeight="1">
+      <c r="B66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F66" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="G63" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="H63" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="I63" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="J63" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="K63" s="12"/>
-    </row>
-    <row r="64" spans="2:12" ht="198" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F64" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="G64" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="2:12" ht="203.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="G65" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="H65" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" ht="180.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>169</v>
-      </c>
       <c r="G66" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H66" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="I66" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="2:12" ht="183.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:12" ht="183.6" customHeight="1" thickBot="1">
       <c r="B67" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="D67" s="26" t="s">
         <v>44</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>310</v>
+        <v>312</v>
+      </c>
+      <c r="I67" s="48" t="s">
+        <v>299</v>
       </c>
       <c r="J67" s="27" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K67" s="9"/>
     </row>
-    <row r="68" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:12" ht="51" customHeight="1">
       <c r="B68" s="12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>310</v>
+        <v>172</v>
+      </c>
+      <c r="I68" s="44" t="s">
+        <v>299</v>
       </c>
       <c r="J68" s="25" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:12">
       <c r="B69" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>310</v>
+      <c r="I69" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="2:12" ht="228.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:12" ht="228.6" customHeight="1">
       <c r="B70" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="D70" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="F70" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H70" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="I70" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" ht="226.2">
+      <c r="B71" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I71" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" ht="174">
+      <c r="B72" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="H72" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="I72" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="K72" s="12"/>
+    </row>
+    <row r="73" spans="2:12" ht="191.4">
+      <c r="B73" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D73" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="G70" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="H70" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" ht="226.2" x14ac:dyDescent="0.4">
-      <c r="B71" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E71" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="F71" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="G71" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="H71" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="I71" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="J71" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="K71" s="12" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" ht="174" x14ac:dyDescent="0.4">
-      <c r="B72" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D72" s="24" t="s">
+      <c r="E73" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="I73" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" ht="156.6">
+      <c r="B74" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D74" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="E72" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="F72" s="24" t="s">
+      <c r="E74" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H74" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="I74" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" ht="156.6">
+      <c r="B75" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="F75" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="G72" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="H72" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="I72" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="J72" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="K72" s="12"/>
-    </row>
-    <row r="73" spans="2:12" ht="174" x14ac:dyDescent="0.4">
-      <c r="B73" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="F73" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="G73" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="H73" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="I73" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" ht="174" x14ac:dyDescent="0.4">
-      <c r="B74" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="F74" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="G74" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="H74" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="I74" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="J74" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B75" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D75" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="F75" s="21" t="s">
-        <v>169</v>
-      </c>
       <c r="G75" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H75" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>302</v>
+        <v>234</v>
+      </c>
+      <c r="I75" s="46" t="s">
+        <v>291</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12" ht="157.19999999999999" thickBot="1" x14ac:dyDescent="0.45">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" ht="157.19999999999999" thickBot="1">
       <c r="B76" s="9" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="D76" s="26" t="s">
         <v>44</v>
       </c>
       <c r="E76" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G76" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="H76" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="I76" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="J76" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" ht="68.400000000000006" customHeight="1" thickBot="1">
+      <c r="B77" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="D77" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="F77" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="G77" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H77" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="I77" s="47" t="s">
         <v>301</v>
       </c>
-      <c r="F76" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="G76" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="H76" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="J76" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="K76" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" ht="68.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="C77" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="D77" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E77" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="F77" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="G77" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="H77" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="I77" s="34" t="s">
-        <v>312</v>
-      </c>
       <c r="J77" s="36" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K77" s="34"/>
       <c r="L77" s="38"/>
     </row>
-    <row r="78" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:12" ht="34.799999999999997">
       <c r="B78" s="12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="I78" s="12" t="s">
-        <v>302</v>
+        <v>181</v>
+      </c>
+      <c r="I78" s="44" t="s">
+        <v>291</v>
       </c>
       <c r="J78" s="25" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" ht="34.799999999999997">
       <c r="B79" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H79" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>302</v>
+        <v>182</v>
+      </c>
+      <c r="I79" s="46" t="s">
+        <v>291</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" ht="34.799999999999997">
       <c r="B80" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H80" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>302</v>
+        <v>185</v>
+      </c>
+      <c r="I80" s="46" t="s">
+        <v>291</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" ht="90" customHeight="1">
       <c r="B81" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H81" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>302</v>
+        <v>189</v>
+      </c>
+      <c r="I81" s="46" t="s">
+        <v>291</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" ht="34.799999999999997">
       <c r="B82" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H82" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>302</v>
+        <v>193</v>
+      </c>
+      <c r="I82" s="46" t="s">
+        <v>291</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="35.4" thickBot="1">
       <c r="B83" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F83" s="26" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G83" s="26" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H83" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>302</v>
+        <v>197</v>
+      </c>
+      <c r="I83" s="48" t="s">
+        <v>291</v>
       </c>
       <c r="J83" s="27" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="34.799999999999997">
       <c r="B84" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G84" s="24" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="I84" s="12" t="s">
-        <v>310</v>
+        <v>235</v>
+      </c>
+      <c r="I84" s="44" t="s">
+        <v>299</v>
       </c>
       <c r="J84" s="25" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:11" ht="34.799999999999997">
       <c r="B85" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H85" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
+      </c>
+      <c r="I85" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:11" ht="34.799999999999997">
       <c r="B86" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H86" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>310</v>
+        <v>237</v>
+      </c>
+      <c r="I86" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="2:11" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:11" ht="41.4" customHeight="1" thickBot="1">
       <c r="B87" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F87" s="26" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H87" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>310</v>
+        <v>238</v>
+      </c>
+      <c r="I87" s="48" t="s">
+        <v>299</v>
       </c>
       <c r="J87" s="27" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K87" s="9"/>
     </row>
-    <row r="88" spans="2:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:11" ht="55.2" customHeight="1">
       <c r="B88" s="29" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D88" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F88" s="30" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G88" s="30" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="I88" s="29" t="s">
-        <v>302</v>
+        <v>268</v>
+      </c>
+      <c r="I88" s="49" t="s">
+        <v>291</v>
       </c>
       <c r="J88" s="31" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="K88" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" ht="35.4" thickBot="1">
       <c r="B89" s="34" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D89" s="34" t="s">
         <v>23</v>
       </c>
       <c r="E89" s="34" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F89" s="35" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G89" s="35" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H89" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="I89" s="34" t="s">
-        <v>302</v>
+        <v>239</v>
+      </c>
+      <c r="I89" s="47" t="s">
+        <v>291</v>
       </c>
       <c r="J89" s="36" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K89" s="34" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11">
       <c r="J90"/>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:11">
       <c r="J91"/>
     </row>
   </sheetData>

--- a/05 테스팅/테스트케이스_Palzo.xlsx
+++ b/05 테스팅/테스트케이스_Palzo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o3o_1\Desktop\SMU\소공\04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o3o_1\git\18-1_8_PALZO_Doc\05 테스팅\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="437">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1994,12 +1994,37 @@
 알림설정 : 1일전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>UC020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list 등록, 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림선택을 있음으로 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 알림을 있음으로 선택한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안내 메시지 출력
+-"~의 마감이 1일 남았습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2824,25 +2849,25 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="4" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.200000000000003">
+    <row r="1" spans="1:4" ht="40.200000000000003" x14ac:dyDescent="0.4">
       <c r="B1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="7.5" customHeight="1"/>
-    <row r="3" spans="1:4" ht="6.75" customHeight="1"/>
-    <row r="4" spans="1:4" ht="21">
+    <row r="2" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="D4" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="54" customHeight="1"/>
-    <row r="6" spans="1:4" ht="23.25" customHeight="1">
+    <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="51" t="s">
         <v>20</v>
       </c>
@@ -2850,10 +2875,10 @@
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
     </row>
-    <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="18"/>
     </row>
-    <row r="8" spans="1:4" ht="18" thickBot="1">
+    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -2867,7 +2892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>377</v>
       </c>
@@ -2881,7 +2906,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>379</v>
       </c>
@@ -2895,7 +2920,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>401</v>
       </c>
@@ -2909,103 +2934,103 @@
         <v>425</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="6"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="6"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="6"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="6"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1">
+    <row r="28" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -3023,14 +3048,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D5:D6"/>
+      <pane ySplit="7" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.19921875" customWidth="1"/>
     <col min="2" max="2" width="16.59765625" customWidth="1"/>
@@ -3046,20 +3071,20 @@
     <col min="12" max="12" width="111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3067,7 +3092,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3075,7 +3100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="21.75" customHeight="1">
+    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
@@ -3107,7 +3132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="78" customHeight="1">
+    <row r="8" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
@@ -3137,7 +3162,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="52.2">
+    <row r="9" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
@@ -3167,7 +3192,7 @@
       </c>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" ht="52.2">
+    <row r="10" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>56</v>
       </c>
@@ -3197,7 +3222,7 @@
       </c>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" ht="69" customHeight="1">
+    <row r="11" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -3227,7 +3252,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="82.95" customHeight="1">
+    <row r="12" spans="1:11" ht="82.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
@@ -3257,7 +3282,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="71.400000000000006" customHeight="1">
+    <row r="13" spans="1:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
         <v>56</v>
       </c>
@@ -3287,7 +3312,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="77.400000000000006" customHeight="1">
+    <row r="14" spans="1:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
@@ -3317,7 +3342,7 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="105" customHeight="1">
+    <row r="15" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>59</v>
       </c>
@@ -3349,7 +3374,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="75" customHeight="1">
+    <row r="16" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
@@ -3379,7 +3404,7 @@
       </c>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" spans="2:11" ht="72.599999999999994" customHeight="1">
+    <row r="17" spans="2:11" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
         <v>56</v>
       </c>
@@ -3409,7 +3434,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11" ht="72" customHeight="1">
+    <row r="18" spans="2:11" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>59</v>
       </c>
@@ -3439,7 +3464,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:11" ht="67.95" customHeight="1">
+    <row r="19" spans="2:11" ht="67.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
@@ -3469,7 +3494,7 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="2:11" ht="67.95" customHeight="1" thickBot="1">
+    <row r="20" spans="2:11" ht="67.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="34" t="s">
         <v>58</v>
       </c>
@@ -3499,7 +3524,7 @@
       </c>
       <c r="K20" s="34"/>
     </row>
-    <row r="21" spans="2:11" ht="18" customHeight="1">
+    <row r="21" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
@@ -3529,7 +3554,7 @@
       </c>
       <c r="K21" s="29"/>
     </row>
-    <row r="22" spans="2:11" ht="18" customHeight="1">
+    <row r="22" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
         <v>60</v>
       </c>
@@ -3559,7 +3584,7 @@
       </c>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="2:11" ht="120.6" customHeight="1">
+    <row r="23" spans="2:11" ht="120.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="12" t="s">
         <v>63</v>
       </c>
@@ -3589,7 +3614,7 @@
       </c>
       <c r="K23" s="42"/>
     </row>
-    <row r="24" spans="2:11" ht="104.4">
+    <row r="24" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,7 +3644,7 @@
       </c>
       <c r="K24" s="22"/>
     </row>
-    <row r="25" spans="2:11" ht="104.4">
+    <row r="25" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
         <v>61</v>
       </c>
@@ -3649,7 +3674,7 @@
       </c>
       <c r="K25" s="22"/>
     </row>
-    <row r="26" spans="2:11" ht="102" customHeight="1">
+    <row r="26" spans="2:11" ht="102" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
         <v>61</v>
       </c>
@@ -3679,7 +3704,7 @@
       </c>
       <c r="K26" s="22"/>
     </row>
-    <row r="27" spans="2:11" ht="139.19999999999999">
+    <row r="27" spans="2:11" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
         <v>63</v>
       </c>
@@ -3709,7 +3734,7 @@
       </c>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="2:11" ht="157.94999999999999" customHeight="1">
+    <row r="28" spans="2:11" ht="157.94999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
         <v>63</v>
       </c>
@@ -3739,7 +3764,7 @@
       </c>
       <c r="K28" s="22"/>
     </row>
-    <row r="29" spans="2:11" ht="156.6">
+    <row r="29" spans="2:11" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
         <v>63</v>
       </c>
@@ -3769,7 +3794,7 @@
       </c>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="2:11" ht="104.4">
+    <row r="30" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
@@ -3799,7 +3824,7 @@
       </c>
       <c r="K30" s="22"/>
     </row>
-    <row r="31" spans="2:11" ht="104.4">
+    <row r="31" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
         <v>60</v>
       </c>
@@ -3829,7 +3854,7 @@
       </c>
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="2:11" ht="121.8">
+    <row r="32" spans="2:11" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
@@ -3859,7 +3884,7 @@
       </c>
       <c r="K32" s="22"/>
     </row>
-    <row r="33" spans="2:11" ht="104.4">
+    <row r="33" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>61</v>
       </c>
@@ -3889,7 +3914,7 @@
       </c>
       <c r="K33" s="22"/>
     </row>
-    <row r="34" spans="2:11" ht="104.4">
+    <row r="34" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
@@ -3919,7 +3944,7 @@
       </c>
       <c r="K34" s="22"/>
     </row>
-    <row r="35" spans="2:11" ht="82.95" customHeight="1">
+    <row r="35" spans="2:11" ht="82.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
         <v>60</v>
       </c>
@@ -3951,7 +3976,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="67.95" customHeight="1">
+    <row r="36" spans="2:11" ht="67.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
@@ -3981,7 +4006,7 @@
       </c>
       <c r="K36" s="22"/>
     </row>
-    <row r="37" spans="2:11" ht="115.2" customHeight="1" thickBot="1">
+    <row r="37" spans="2:11" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="9" t="s">
         <v>61</v>
       </c>
@@ -4011,7 +4036,7 @@
       </c>
       <c r="K37" s="43"/>
     </row>
-    <row r="38" spans="2:11" ht="40.200000000000003" customHeight="1">
+    <row r="38" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="12" t="s">
         <v>98</v>
       </c>
@@ -4041,7 +4066,7 @@
       </c>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="2:11" ht="68.400000000000006" customHeight="1">
+    <row r="39" spans="2:11" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
         <v>98</v>
       </c>
@@ -4071,7 +4096,7 @@
       </c>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="2:11" ht="74.400000000000006" customHeight="1">
+    <row r="40" spans="2:11" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
         <v>87</v>
       </c>
@@ -4101,7 +4126,7 @@
       </c>
       <c r="K40" s="22"/>
     </row>
-    <row r="41" spans="2:11" ht="69" customHeight="1">
+    <row r="41" spans="2:11" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
         <v>87</v>
       </c>
@@ -4131,7 +4156,7 @@
       </c>
       <c r="K41" s="23"/>
     </row>
-    <row r="42" spans="2:11" ht="73.2" customHeight="1">
+    <row r="42" spans="2:11" ht="73.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
         <v>98</v>
       </c>
@@ -4161,7 +4186,7 @@
       </c>
       <c r="K42" s="22"/>
     </row>
-    <row r="43" spans="2:11" ht="78" customHeight="1" thickBot="1">
+    <row r="43" spans="2:11" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
         <v>118</v>
       </c>
@@ -4191,7 +4216,7 @@
       </c>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="2:11" ht="18" customHeight="1">
+    <row r="44" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="29" t="s">
         <v>126</v>
       </c>
@@ -4221,7 +4246,7 @@
       </c>
       <c r="K44" s="29"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
         <v>230</v>
       </c>
@@ -4251,7 +4276,7 @@
       </c>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="2:11" ht="121.8">
+    <row r="46" spans="2:11" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="s">
         <v>230</v>
       </c>
@@ -4281,7 +4306,7 @@
       </c>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="2:11" ht="156.6">
+    <row r="47" spans="2:11" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
         <v>230</v>
       </c>
@@ -4313,7 +4338,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="87">
+    <row r="48" spans="2:11" ht="87" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
         <v>230</v>
       </c>
@@ -4343,7 +4368,7 @@
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="2:12" ht="105" thickBot="1">
+    <row r="49" spans="2:12" ht="105" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>230</v>
       </c>
@@ -4373,7 +4398,7 @@
       </c>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="2:12" ht="122.4" thickBot="1">
+    <row r="50" spans="2:12" ht="122.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
         <v>230</v>
       </c>
@@ -4403,7 +4428,7 @@
       </c>
       <c r="K50" s="22"/>
     </row>
-    <row r="51" spans="2:12" ht="39.6" customHeight="1">
+    <row r="51" spans="2:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="29" t="s">
         <v>144</v>
       </c>
@@ -4433,7 +4458,7 @@
       </c>
       <c r="K51" s="29"/>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B52" s="1" t="s">
         <v>259</v>
       </c>
@@ -4463,7 +4488,7 @@
       </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="2:12" ht="122.4" thickBot="1">
+    <row r="53" spans="2:12" ht="122.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
         <v>144</v>
       </c>
@@ -4495,7 +4520,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="174">
+    <row r="54" spans="2:12" ht="174" x14ac:dyDescent="0.4">
       <c r="B54" s="33" t="s">
         <v>144</v>
       </c>
@@ -4528,7 +4553,7 @@
       </c>
       <c r="L54" s="37"/>
     </row>
-    <row r="55" spans="2:12" ht="104.4">
+    <row r="55" spans="2:12" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
         <v>144</v>
       </c>
@@ -4560,7 +4585,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="174">
+    <row r="56" spans="2:12" ht="174" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
         <v>144</v>
       </c>
@@ -4592,7 +4617,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="122.4" thickBot="1">
+    <row r="57" spans="2:12" ht="122.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
         <v>144</v>
       </c>
@@ -4624,7 +4649,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="35.4" thickBot="1">
+    <row r="58" spans="2:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B58" s="39" t="s">
         <v>145</v>
       </c>
@@ -4655,7 +4680,7 @@
       <c r="K58" s="39"/>
       <c r="L58" s="38"/>
     </row>
-    <row r="59" spans="2:12" ht="18" customHeight="1">
+    <row r="59" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B59" s="12" t="s">
         <v>148</v>
       </c>
@@ -4685,7 +4710,7 @@
       </c>
       <c r="K59" s="12"/>
     </row>
-    <row r="60" spans="2:12">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B60" s="1" t="s">
         <v>300</v>
       </c>
@@ -4715,7 +4740,7 @@
       </c>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="2:12" ht="205.95" customHeight="1">
+    <row r="61" spans="2:12" ht="205.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
         <v>148</v>
       </c>
@@ -4747,7 +4772,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="226.2">
+    <row r="62" spans="2:12" ht="226.2" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
         <v>148</v>
       </c>
@@ -4777,7 +4802,7 @@
       </c>
       <c r="K62" s="12"/>
     </row>
-    <row r="63" spans="2:12" ht="202.2" customHeight="1">
+    <row r="63" spans="2:12" ht="202.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
         <v>148</v>
       </c>
@@ -4807,7 +4832,7 @@
       </c>
       <c r="K63" s="12"/>
     </row>
-    <row r="64" spans="2:12" ht="198" customHeight="1">
+    <row r="64" spans="2:12" ht="198" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="1" t="s">
         <v>148</v>
       </c>
@@ -4837,7 +4862,7 @@
       </c>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="2:12" ht="203.4" customHeight="1">
+    <row r="65" spans="2:12" ht="203.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="1" t="s">
         <v>148</v>
       </c>
@@ -4867,7 +4892,7 @@
       </c>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="2:12" ht="180.6" customHeight="1">
+    <row r="66" spans="2:12" ht="180.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="1" t="s">
         <v>148</v>
       </c>
@@ -4897,7 +4922,7 @@
       </c>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="2:12" ht="183.6" customHeight="1" thickBot="1">
+    <row r="67" spans="2:12" ht="183.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B67" s="9" t="s">
         <v>148</v>
       </c>
@@ -4927,7 +4952,7 @@
       </c>
       <c r="K67" s="9"/>
     </row>
-    <row r="68" spans="2:12" ht="51" customHeight="1">
+    <row r="68" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="12" t="s">
         <v>170</v>
       </c>
@@ -4957,7 +4982,7 @@
       </c>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="2:12">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B69" s="1" t="s">
         <v>263</v>
       </c>
@@ -4987,7 +5012,7 @@
       </c>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="2:12" ht="228.6" customHeight="1">
+    <row r="70" spans="2:12" ht="228.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="1" t="s">
         <v>263</v>
       </c>
@@ -5019,7 +5044,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="226.2">
+    <row r="71" spans="2:12" ht="226.2" x14ac:dyDescent="0.4">
       <c r="B71" s="1" t="s">
         <v>263</v>
       </c>
@@ -5051,7 +5076,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="174">
+    <row r="72" spans="2:12" ht="174" x14ac:dyDescent="0.4">
       <c r="B72" s="1" t="s">
         <v>263</v>
       </c>
@@ -5081,7 +5106,7 @@
       </c>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="2:12" ht="191.4">
+    <row r="73" spans="2:12" ht="191.4" x14ac:dyDescent="0.4">
       <c r="B73" s="1" t="s">
         <v>263</v>
       </c>
@@ -5113,7 +5138,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="156.6">
+    <row r="74" spans="2:12" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B74" s="1" t="s">
         <v>263</v>
       </c>
@@ -5145,7 +5170,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="156.6">
+    <row r="75" spans="2:12" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B75" s="1" t="s">
         <v>263</v>
       </c>
@@ -5177,7 +5202,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="157.19999999999999" thickBot="1">
+    <row r="76" spans="2:12" ht="157.19999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B76" s="9" t="s">
         <v>263</v>
       </c>
@@ -5209,7 +5234,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="68.400000000000006" customHeight="1" thickBot="1">
+    <row r="77" spans="2:12" ht="68.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="34" t="s">
         <v>267</v>
       </c>
@@ -5240,7 +5265,7 @@
       <c r="K77" s="34"/>
       <c r="L77" s="38"/>
     </row>
-    <row r="78" spans="2:12" ht="34.799999999999997">
+    <row r="78" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B78" s="12" t="s">
         <v>174</v>
       </c>
@@ -5272,7 +5297,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="34.799999999999997">
+    <row r="79" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B79" s="1" t="s">
         <v>175</v>
       </c>
@@ -5304,7 +5329,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="34.799999999999997">
+    <row r="80" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B80" s="1" t="s">
         <v>180</v>
       </c>
@@ -5336,7 +5361,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="81" spans="2:11" ht="90" customHeight="1">
+    <row r="81" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="1" t="s">
         <v>186</v>
       </c>
@@ -5368,7 +5393,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="82" spans="2:11" ht="34.799999999999997">
+    <row r="82" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B82" s="1" t="s">
         <v>190</v>
       </c>
@@ -5400,7 +5425,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="83" spans="2:11" ht="35.4" thickBot="1">
+    <row r="83" spans="2:11" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="9" t="s">
         <v>194</v>
       </c>
@@ -5432,7 +5457,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="84" spans="2:11" ht="34.799999999999997">
+    <row r="84" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B84" s="12" t="s">
         <v>198</v>
       </c>
@@ -5462,7 +5487,7 @@
       </c>
       <c r="K84" s="12"/>
     </row>
-    <row r="85" spans="2:11" ht="34.799999999999997">
+    <row r="85" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B85" s="1" t="s">
         <v>198</v>
       </c>
@@ -5492,7 +5517,7 @@
       </c>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="2:11" ht="34.799999999999997">
+    <row r="86" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B86" s="1" t="s">
         <v>198</v>
       </c>
@@ -5522,7 +5547,7 @@
       </c>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="2:11" ht="41.4" customHeight="1" thickBot="1">
+    <row r="87" spans="2:11" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B87" s="9" t="s">
         <v>198</v>
       </c>
@@ -5552,7 +5577,7 @@
       </c>
       <c r="K87" s="9"/>
     </row>
-    <row r="88" spans="2:11" ht="55.2" customHeight="1">
+    <row r="88" spans="2:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="29" t="s">
         <v>206</v>
       </c>
@@ -5584,7 +5609,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="89" spans="2:11" ht="35.4" thickBot="1">
+    <row r="89" spans="2:11" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B89" s="34" t="s">
         <v>206</v>
       </c>
@@ -5616,11 +5641,37 @@
         <v>422</v>
       </c>
     </row>
-    <row r="90" spans="2:11">
-      <c r="J90"/>
-    </row>
-    <row r="91" spans="2:11">
+    <row r="90" spans="2:11" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="C90" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="D90" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="F90" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="G90" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="H90" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="I90" s="47"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="34"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J91"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J92"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/05 테스팅/테스트케이스_Palzo.xlsx
+++ b/05 테스팅/테스트케이스_Palzo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o3o_1\git\18-1_8_PALZO_Doc\05 테스팅\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o3o_1\Desktop\SMU\소공\04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="426">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,6 +301,11 @@
     <t>ID : test
 PW : test
 E-mail : guswl9814@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : ()_-+={[]}
+PW : ()_-+={[]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -444,6 +449,11 @@
   </si>
   <si>
     <t>로그인 창에서 ID/PW찾기 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안내 메시지 출력
+-"회원가입이 완료되었습니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -742,6 +752,14 @@
 강의시간 : (NULL)
 강의실 : (NULL)
 단, 모든 입력은 TC0~과 같게 하고, 한번에 하나의 입력만 NULL로 둔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명 : ~`!@#$
+담당교수 : %^&amp;*
+강의학기 : ()_-,+=
+강의시간 : {{}}, {[}], :;"'
+강의실 : &lt;,&gt;.?/|\</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -793,6 +811,26 @@
   </si>
   <si>
     <t>입력값에 특수문자가 포함되어 있을 경우에 대한 처리 확인 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do명 : `~!@#$%^&amp;*()_-+=
+과목선택 : 소프트웨어공학
+마감기한 : 2018,05,04
+실제마감일 : 2015,05,04
+중요도 : ★★★★★
+완료도 : ★★☆☆☆
+알림설정 : 1일전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do명 : {}[]|\:;"'&lt;,&gt;.?/
+과목선택 : 소프트웨어공학
+마감기한 : 2018,05,04
+실제마감일 : 2015,05,04
+중요도 : ★★★★★
+완료도 : ★★☆☆☆
+알림설정 : 1일전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1300,6 +1338,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>To-do list  화면에 to-do 항목
+이 추가되어 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>To-do list  화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1330,6 +1373,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ID : ()_-+={[]}
+PW : ()_-+={[]}
+E-mail : 
+()_-+={[]}@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>안내 메시지 출력
 -"회원가입이 완료되었습니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1338,6 +1388,22 @@
     <t>ID : 123456789
 PW : 123456789
 E-mail : 123456789@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : ~`!@#$%^&amp;* 
+PW : ~`!@#$%^&amp;*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : |\:;"'&lt;, &gt;.?/
+PW : |\:;"'&lt;, &gt;.?/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : |\:;"'&lt;, &gt;.?/
+PW : |\:;"'&lt;, &gt;.?/
+E-mail : smse.test6@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1387,595 +1453,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>입력값에 한글(초성)이 포함되어 있을 경
-우에 대한 작동확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력값에 한글이 포함되어 있을 경우에 
-대한 작동확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력값에 대문자가 포함되어 있을 경우에 
-대한 에러검출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한자로 이루어진 입력에 대한 작동확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID : 韓國
-PW : 韓國</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안내 메시지 출력
--"회원가입이 완료되었습니다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID : 韓國
-PW : 韓國
-E-mail : 韓國@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>UC009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에러 메시지 출력
--"유효하지 않은 정보가 입력되었습니다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과목명이 변경된 To-do list  화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 과목이 삭제된 To-do list  화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do list  화면에 to-do 항목이 추가되어 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do list  화면에 to-do 항목이 추가되어 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 To-do가 삭제된 To-do list  화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC031</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC036</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC037</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC039</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC043</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do list 화면에서 과목추가 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복되는 강의명이 입력되었을 경우에 대한 에러검출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC044</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC045</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC048</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC049</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC052</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC054</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC055</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC056</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC057</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC058</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC059</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC062</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC063</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC064</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC065</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC066</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC067</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC069</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC070</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC071</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC072</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC073</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC074</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC075</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC076</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC077</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC078</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC079</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC082</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC083</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.05.30</t>
-  </si>
-  <si>
-    <t>테스트케이스작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서현지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.05.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V.1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.05.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 테스트 수행결과 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서현지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.05.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.05.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID : ~`!@#$%^&amp;* 
-PW : ~`!@#$%^&amp;*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID : |\:;&lt;,?"'
-PW : |\:;&lt;,?"'
-(단 확실한 테스트를 위해 한글자씩도 모두 입력해보도록 한다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID : ()_-+={[]}./
-PW : ()_-+={[]}./</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID : ()_-+={[]}./
-PW : ()_-+={[]}./
-E-mail : 
-()_-+={[]}./@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID : |\:;&lt;,?"'
-PW : |\:;&lt;,?"'
-E-mail :  |\:;&lt;,?"'@gmail.com
-(단 확실한 테스트를 위해 한글자씩도 모두 입력해보도록 한다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에러 메시지 출력
--"유효하지 않은 정보가 입력되었습니다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.05.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3031</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3032</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.05.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3034</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.05.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3036</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3037</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3039</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3041</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2118.05.30</t>
-  </si>
-  <si>
-    <t>#3043</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3044</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3045</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3047</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3048</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3049</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2차 테스트 수행결과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서현지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#3130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과목명 : ~`!@#$
-담당교수 : %^&amp;*
-강의학기 : ()_-+=
-강의시간 : {{}}, {[}],
-강의실 : &gt;.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에러 메시지 출력
--"유효하지 않은 정보가 입력되었습니다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do명 : `~!@#$%^&amp;*()_-+={[]}.&gt;
+    <t>To-do명 : {}[]|\:;"'&lt;,&gt;.?/
 과목선택 : 소프트웨어공학
 마감기한 : 2018,05,04
 실제마감일 : 2015,05,04
@@ -1985,38 +1463,521 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>To-do명 : |\:;"'&lt;,?/
-과목선택 : 소프트웨어공학
-마감기한 : 2018,05,04
-실제마감일 : 2015,05,04
-중요도 : ★★★★★
-완료도 : ★★☆☆☆
-알림설정 : 1일전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UC020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC084</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do list 등록, 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알림선택을 있음으로 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 알림을 있음으로 선택한다.</t>
+    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>입력값에 한글(초성)이 포함되어 있을 경
+우에 대한 작동확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력값에 한글이 포함되어 있을 경우에 
+대한 작동확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력값에 대문자가 포함되어 있을 경우에 
+대한 에러검출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자로 이루어진 입력에 대한 작동확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : 韓國
+PW : 韓國</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>안내 메시지 출력
--"~의 마감이 1일 남았습니다."</t>
+-"회원가입이 완료되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : 韓國
+PW : 韓國
+E-mail : 韓國@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>UC009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 메시지 출력
+-"유효하지 않은 정보가 입력되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명이 변경된 To-do list  화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 과목이 삭제된 To-do list  화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list  화면에 to-do 항목이 추가되어 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list  화면에 to-do 항목이 추가되어 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 To-do가 삭제된 To-do list  화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list 화면에서 과목추가 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복되는 강의명이 입력되었을 경우에 대한 에러검출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC075</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.30</t>
+  </si>
+  <si>
+    <t>테스트케이스작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서현지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 테스트 수행결과 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서현지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1431</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1433</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1434</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1435</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1436</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 메시지 출력
+-"잘못된 회원정보 입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1437</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1438</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1439</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1440</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1442</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1443</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1445</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1446</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1447</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1448</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1449</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1451</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1452</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1453</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1454</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1457</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1458</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1459</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1461</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2372,7 +2333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2505,29 +2466,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2846,7 +2789,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2868,12 +2811,12 @@
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
     </row>
     <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="18"/>
@@ -2894,45 +2837,37 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>425</v>
-      </c>
+      <c r="A11" s="6"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
@@ -3048,11 +2983,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3065,7 +3000,7 @@
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="25.69921875" customWidth="1"/>
     <col min="8" max="8" width="26.59765625" customWidth="1"/>
-    <col min="9" max="9" width="8" style="45" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="11.8984375" style="4" customWidth="1"/>
     <col min="11" max="11" width="17.69921875" customWidth="1"/>
     <col min="12" max="12" width="111" customWidth="1"/>
@@ -3081,7 +3016,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -3089,7 +3024,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -3097,7 +3032,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3149,16 +3084,16 @@
         <v>25</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="46" t="s">
-        <v>299</v>
+      <c r="I8" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K8" s="1"/>
     </row>
@@ -3179,18 +3114,20 @@
         <v>36</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="46" t="s">
-        <v>383</v>
+      <c r="I9" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="K9" s="22"/>
+        <v>387</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
@@ -3209,18 +3146,20 @@
         <v>37</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="46" t="s">
-        <v>384</v>
+      <c r="I10" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="K10" s="22"/>
+        <v>387</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
@@ -3233,22 +3172,22 @@
         <v>39</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="46" t="s">
-        <v>299</v>
+      <c r="I11" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K11" s="1"/>
     </row>
@@ -3269,16 +3208,16 @@
         <v>41</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="46" t="s">
-        <v>299</v>
+      <c r="I12" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K12" s="1"/>
     </row>
@@ -3296,19 +3235,19 @@
         <v>29</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>387</v>
+        <v>284</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="46" t="s">
-        <v>299</v>
+      <c r="I13" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K13" s="1"/>
     </row>
@@ -3317,7 +3256,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>43</v>
@@ -3326,52 +3265,52 @@
         <v>29</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>390</v>
+        <v>66</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="46" t="s">
-        <v>299</v>
+      <c r="I14" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>67</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>389</v>
+        <v>285</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>394</v>
+        <v>402</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3382,25 +3321,25 @@
         <v>55</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="46" t="s">
-        <v>308</v>
+      <c r="I16" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K16" s="22"/>
     </row>
@@ -3409,28 +3348,28 @@
         <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="46" t="s">
-        <v>299</v>
+      <c r="I17" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K17" s="1"/>
     </row>
@@ -3439,10 +3378,10 @@
         <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>24</v>
@@ -3451,16 +3390,16 @@
         <v>46</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="46" t="s">
-        <v>299</v>
+      <c r="I18" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K18" s="1"/>
     </row>
@@ -3469,28 +3408,28 @@
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="46" t="s">
-        <v>299</v>
+      <c r="I19" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K19" s="1"/>
     </row>
@@ -3499,7 +3438,7 @@
         <v>58</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>47</v>
@@ -3511,16 +3450,16 @@
         <v>48</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="47" t="s">
-        <v>299</v>
+      <c r="I20" s="34" t="s">
+        <v>310</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K20" s="34"/>
     </row>
@@ -3529,28 +3468,28 @@
         <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I21" s="46" t="s">
-        <v>299</v>
+        <v>123</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K21" s="29"/>
     </row>
@@ -3559,28 +3498,28 @@
         <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I22" s="46" t="s">
-        <v>299</v>
+        <v>232</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K22" s="12"/>
     </row>
@@ -3589,28 +3528,28 @@
         <v>63</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>65</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="I23" s="44" t="s">
-        <v>302</v>
+        <v>71</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>313</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K23" s="42"/>
     </row>
@@ -3619,28 +3558,28 @@
         <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="46" t="s">
-        <v>303</v>
+      <c r="I24" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K24" s="22"/>
     </row>
@@ -3649,28 +3588,28 @@
         <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="46" t="s">
-        <v>301</v>
+      <c r="I25" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K25" s="22"/>
     </row>
@@ -3679,28 +3618,28 @@
         <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H26" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="46" t="s">
-        <v>302</v>
+      <c r="I26" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K26" s="22"/>
     </row>
@@ -3709,28 +3648,28 @@
         <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I27" s="46" t="s">
-        <v>299</v>
+        <v>81</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K27" s="1"/>
     </row>
@@ -3739,28 +3678,28 @@
         <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28" s="46" t="s">
-        <v>303</v>
+        <v>78</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K28" s="22"/>
     </row>
@@ -3769,28 +3708,28 @@
         <v>63</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I29" s="46" t="s">
-        <v>299</v>
+        <v>82</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K29" s="1"/>
     </row>
@@ -3799,28 +3738,28 @@
         <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I30" s="46" t="s">
-        <v>304</v>
+        <v>71</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K30" s="22"/>
     </row>
@@ -3829,88 +3768,90 @@
         <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>391</v>
+        <v>281</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="46" t="s">
-        <v>303</v>
+        <v>80</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="2:11" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>392</v>
+        <v>286</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="I32" s="46" t="s">
-        <v>396</v>
+        <v>99</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="K32" s="22"/>
+        <v>387</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="33" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="I33" s="46" t="s">
-        <v>301</v>
+        <v>170</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K33" s="22"/>
     </row>
@@ -3919,28 +3860,28 @@
         <v>60</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="I34" s="46" t="s">
-        <v>302</v>
+        <v>282</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K34" s="22"/>
     </row>
@@ -3949,31 +3890,31 @@
         <v>60</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="I35" s="46" t="s">
-        <v>302</v>
+        <v>282</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="67.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -3981,28 +3922,28 @@
         <v>21</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="I36" s="46" t="s">
-        <v>303</v>
+        <v>308</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K36" s="22"/>
     </row>
@@ -4011,1667 +3952,1658 @@
         <v>61</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>47</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="I37" s="48" t="s">
-        <v>301</v>
+        <v>308</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>312</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K37" s="43"/>
     </row>
     <row r="38" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="I38" s="44" t="s">
-        <v>299</v>
+        <v>115</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="2:11" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I39" s="46" t="s">
-        <v>299</v>
+        <v>234</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K39" s="12"/>
     </row>
     <row r="40" spans="2:11" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="I40" s="46" t="s">
-        <v>306</v>
+        <v>292</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K40" s="22"/>
     </row>
     <row r="41" spans="2:11" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="I41" s="46" t="s">
-        <v>384</v>
+        <v>320</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="K41" s="23"/>
+        <v>387</v>
+      </c>
+      <c r="K41" s="23" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="42" spans="2:11" ht="73.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="I42" s="46" t="s">
-        <v>308</v>
+        <v>119</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K42" s="22"/>
     </row>
     <row r="43" spans="2:11" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="I43" s="46" t="s">
-        <v>299</v>
+        <v>293</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="D44" s="33" t="s">
         <v>64</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G44" s="33" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H44" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="I44" s="49" t="s">
-        <v>299</v>
+        <v>132</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>310</v>
       </c>
       <c r="J44" s="31" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K44" s="29"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="G45" s="21" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="46" t="s">
-        <v>299</v>
+      <c r="I45" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="2:11" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="I46" s="46" t="s">
-        <v>299</v>
+        <v>236</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="2:11" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="I47" s="44" t="s">
-        <v>399</v>
+        <v>135</v>
+      </c>
+      <c r="I47" s="25" t="s">
+        <v>302</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K47" s="42" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="87" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>427</v>
+        <v>158</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="I48" s="46" t="s">
-        <v>299</v>
+        <v>253</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="2:12" ht="105" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="D49" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G49" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E49" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="G49" s="21" t="s">
-        <v>134</v>
-      </c>
       <c r="H49" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="I49" s="46" t="s">
-        <v>299</v>
+        <v>237</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="2:12" ht="122.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="I50" s="46" t="s">
-        <v>396</v>
+        <v>143</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="K50" s="22"/>
+        <v>387</v>
+      </c>
+      <c r="K50" s="22" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="51" spans="2:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="29" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="D51" s="33" t="s">
         <v>64</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="I51" s="49" t="s">
-        <v>299</v>
+        <v>255</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>310</v>
       </c>
       <c r="J51" s="31" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K51" s="29"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B52" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I52" s="46" t="s">
-        <v>299</v>
+      <c r="I52" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="2:12" ht="122.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D53" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="I53" s="46" t="s">
-        <v>291</v>
+        <v>276</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K53" s="23" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="174" x14ac:dyDescent="0.4">
       <c r="B54" s="33" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="I54" s="44" t="s">
-        <v>291</v>
+        <v>135</v>
+      </c>
+      <c r="I54" s="25" t="s">
+        <v>302</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K54" s="42" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="L54" s="37"/>
     </row>
     <row r="55" spans="2:12" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="D55" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G55" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E55" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="G55" s="21" t="s">
-        <v>134</v>
-      </c>
       <c r="H55" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="I55" s="46" t="s">
         <v>291</v>
       </c>
+      <c r="I55" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="J55" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K55" s="23" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="2:12" ht="174" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="D56" s="21" t="s">
         <v>44</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="I56" s="46" t="s">
-        <v>399</v>
+        <v>322</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="K56" s="23" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="122.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="F57" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="D57" s="21" t="s">
+      <c r="G57" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H57" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="G57" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="H57" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="I57" s="46" t="s">
-        <v>291</v>
+      <c r="I57" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="2:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B58" s="39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="D58" s="39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F58" s="39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G58" s="39" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>310</v>
-      </c>
-      <c r="I58" s="50" t="s">
-        <v>301</v>
+        <v>323</v>
+      </c>
+      <c r="I58" s="39" t="s">
+        <v>312</v>
       </c>
       <c r="J58" s="41" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K58" s="39"/>
       <c r="L58" s="38"/>
     </row>
     <row r="59" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B59" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="I59" s="44" t="s">
-        <v>299</v>
+        <v>154</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="J59" s="25" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K59" s="12"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B60" s="1" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I60" s="46" t="s">
-        <v>299</v>
+      <c r="I60" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="2:12" ht="205.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="D61" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="I61" s="46" t="s">
-        <v>291</v>
+        <v>239</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="2:12" ht="226.2" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="I62" s="44" t="s">
-        <v>388</v>
+        <v>135</v>
+      </c>
+      <c r="I62" s="25" t="s">
+        <v>302</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="K62" s="12"/>
+        <v>387</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="63" spans="2:12" ht="202.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I63" s="44" t="s">
-        <v>299</v>
+        <v>239</v>
+      </c>
+      <c r="I63" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K63" s="12"/>
     </row>
     <row r="64" spans="2:12" ht="198" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>429</v>
+        <v>167</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="I64" s="46" t="s">
-        <v>299</v>
+        <v>275</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K64" s="1"/>
     </row>
     <row r="65" spans="2:12" ht="203.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>430</v>
+        <v>297</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="I65" s="46" t="s">
-        <v>407</v>
+        <v>274</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="K65" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="66" spans="2:12" ht="180.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="D66" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G66" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G66" s="21" t="s">
-        <v>134</v>
-      </c>
       <c r="H66" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="I66" s="46" t="s">
-        <v>299</v>
+        <v>324</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K66" s="1"/>
     </row>
     <row r="67" spans="2:12" ht="183.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B67" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="D67" s="26" t="s">
         <v>44</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="I67" s="48" t="s">
-        <v>299</v>
+        <v>325</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>310</v>
       </c>
       <c r="J67" s="27" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K67" s="9"/>
     </row>
     <row r="68" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="12" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="I68" s="44" t="s">
-        <v>299</v>
+        <v>177</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="J68" s="25" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B69" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I69" s="46" t="s">
-        <v>299</v>
+      <c r="I69" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K69" s="1"/>
     </row>
     <row r="70" spans="2:12" ht="228.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="D70" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="I70" s="46" t="s">
-        <v>291</v>
+        <v>239</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="226.2" x14ac:dyDescent="0.4">
       <c r="B71" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="I71" s="44" t="s">
-        <v>291</v>
+        <v>135</v>
+      </c>
+      <c r="I71" s="25" t="s">
+        <v>302</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72" spans="2:12" ht="174" x14ac:dyDescent="0.4">
       <c r="B72" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I72" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="I72" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="K72" s="12"/>
+    </row>
+    <row r="73" spans="2:12" ht="174" x14ac:dyDescent="0.4">
+      <c r="B73" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E73" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="J72" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="K72" s="12"/>
-    </row>
-    <row r="73" spans="2:12" ht="191.4" x14ac:dyDescent="0.4">
-      <c r="B73" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>288</v>
-      </c>
       <c r="F73" s="21" t="s">
-        <v>429</v>
+        <v>167</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I73" s="44" t="s">
-        <v>291</v>
+        <v>239</v>
+      </c>
+      <c r="I73" s="25" t="s">
+        <v>302</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" ht="156.6" x14ac:dyDescent="0.4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" ht="174" x14ac:dyDescent="0.4">
       <c r="B74" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>430</v>
+        <v>168</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="I74" s="44" t="s">
-        <v>291</v>
+        <v>239</v>
+      </c>
+      <c r="I74" s="25" t="s">
+        <v>302</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="75" spans="2:12" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B75" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H75" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="I75" s="46" t="s">
-        <v>291</v>
+        <v>239</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="76" spans="2:12" ht="157.19999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B76" s="9" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="D76" s="26" t="s">
         <v>44</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="F76" s="26" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G76" s="26" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H76" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="I76" s="48" t="s">
-        <v>291</v>
+        <v>174</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>302</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="2:12" ht="68.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="34" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="D77" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="F77" s="34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H77" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="I77" s="47" t="s">
-        <v>301</v>
+        <v>326</v>
+      </c>
+      <c r="I77" s="34" t="s">
+        <v>312</v>
       </c>
       <c r="J77" s="36" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K77" s="34"/>
       <c r="L77" s="38"/>
     </row>
     <row r="78" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B78" s="12" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="I78" s="44" t="s">
-        <v>291</v>
+        <v>186</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>302</v>
       </c>
       <c r="J78" s="25" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
     </row>
     <row r="79" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B79" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H79" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="I79" s="46" t="s">
-        <v>291</v>
+        <v>187</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
     </row>
     <row r="80" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B80" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H80" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="I80" s="46" t="s">
-        <v>291</v>
+        <v>190</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
     </row>
     <row r="81" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H81" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I81" s="46" t="s">
-        <v>291</v>
+        <v>194</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
     </row>
     <row r="82" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B82" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H82" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="I82" s="46" t="s">
-        <v>291</v>
+        <v>198</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83" spans="2:11" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="9" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F83" s="26" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G83" s="26" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H83" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="I83" s="48" t="s">
-        <v>291</v>
+        <v>202</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>302</v>
       </c>
       <c r="J83" s="27" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="84" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B84" s="12" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G84" s="24" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="I84" s="44" t="s">
-        <v>299</v>
+        <v>240</v>
+      </c>
+      <c r="I84" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="J84" s="25" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K84" s="12"/>
     </row>
     <row r="85" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B85" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H85" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="I85" s="46" t="s">
-        <v>299</v>
+        <v>241</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K85" s="1"/>
     </row>
     <row r="86" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B86" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H86" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="I86" s="46" t="s">
-        <v>299</v>
+        <v>242</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="2:11" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B87" s="9" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F87" s="26" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H87" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="I87" s="48" t="s">
-        <v>299</v>
+        <v>243</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>310</v>
       </c>
       <c r="J87" s="27" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K87" s="9"/>
     </row>
     <row r="88" spans="2:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="29" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="D88" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F88" s="30" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G88" s="30" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="I88" s="49" t="s">
-        <v>291</v>
+        <v>273</v>
+      </c>
+      <c r="I88" s="29" t="s">
+        <v>302</v>
       </c>
       <c r="J88" s="31" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="K88" s="29" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" ht="69.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B89" s="34" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="D89" s="34" t="s">
         <v>23</v>
       </c>
       <c r="E89" s="34" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F89" s="35" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G89" s="35" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H89" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="I89" s="47" t="s">
-        <v>291</v>
+        <v>244</v>
+      </c>
+      <c r="I89" s="34" t="s">
+        <v>302</v>
       </c>
       <c r="J89" s="36" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K89" s="34" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="34" t="s">
-        <v>431</v>
-      </c>
-      <c r="C90" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="D90" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E90" s="34" t="s">
-        <v>433</v>
-      </c>
-      <c r="F90" s="35" t="s">
-        <v>434</v>
-      </c>
-      <c r="G90" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="H90" s="35" t="s">
-        <v>436</v>
-      </c>
-      <c r="I90" s="47"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="34"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B90" s="38" t="e">
+        <f>+G91B9B90:J91</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="45"/>
+      <c r="J90"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J91"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J92"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/05 테스팅/테스트케이스_Palzo.xlsx
+++ b/05 테스팅/테스트케이스_Palzo.xlsx
@@ -1860,124 +1860,124 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#1431</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1432</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1433</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1434</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1435</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1436</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>에러 메시지 출력
 -"잘못된 회원정보 입니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#1437</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1438</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1439</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1440</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1442</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1443</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1445</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1446</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1447</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1448</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1449</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1450</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1451</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1452</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1453</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1454</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1455</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1457</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1458</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1459</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1460</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1461</t>
+    <t>#1464</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1465</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1466</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1467</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1468</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1469</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1470</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1471</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1472</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1473</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1474</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1475</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1476</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1477</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1478</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1479</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1481</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1482</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1483</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1484</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1486</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1487</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1488</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1489</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1492</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1493</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1495</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2986,8 +2986,8 @@
   <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J94" sqref="J94"/>
+      <pane ySplit="7" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3126,7 +3126,7 @@
         <v>387</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
@@ -3158,7 +3158,7 @@
         <v>387</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.4">
@@ -3301,7 +3301,7 @@
         <v>109</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>302</v>
@@ -3310,7 +3310,7 @@
         <v>387</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3822,7 +3822,7 @@
         <v>387</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
@@ -4096,7 +4096,7 @@
         <v>387</v>
       </c>
       <c r="K41" s="23" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="73.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -4278,7 +4278,7 @@
         <v>387</v>
       </c>
       <c r="K47" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="87" x14ac:dyDescent="0.4">
@@ -4370,7 +4370,7 @@
         <v>387</v>
       </c>
       <c r="K50" s="22" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -4462,7 +4462,7 @@
         <v>387</v>
       </c>
       <c r="K53" s="23" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="174" x14ac:dyDescent="0.4">
@@ -4494,7 +4494,7 @@
         <v>387</v>
       </c>
       <c r="K54" s="42" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="L54" s="37"/>
     </row>
@@ -4527,7 +4527,7 @@
         <v>387</v>
       </c>
       <c r="K55" s="23" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56" spans="2:12" ht="174" x14ac:dyDescent="0.4">
@@ -4559,7 +4559,7 @@
         <v>387</v>
       </c>
       <c r="K56" s="23" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="122.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -4591,7 +4591,7 @@
         <v>387</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58" spans="2:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -4714,7 +4714,7 @@
         <v>387</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62" spans="2:12" ht="226.2" x14ac:dyDescent="0.4">
@@ -4746,7 +4746,7 @@
         <v>387</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="202.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -4838,7 +4838,7 @@
         <v>387</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="66" spans="2:12" ht="180.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -4990,7 +4990,7 @@
         <v>387</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="226.2" x14ac:dyDescent="0.4">
@@ -5022,7 +5022,7 @@
         <v>387</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="72" spans="2:12" ht="174" x14ac:dyDescent="0.4">
@@ -5084,7 +5084,7 @@
         <v>387</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="74" spans="2:12" ht="174" x14ac:dyDescent="0.4">
@@ -5116,7 +5116,7 @@
         <v>387</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="75" spans="2:12" ht="156.6" x14ac:dyDescent="0.4">
@@ -5148,7 +5148,7 @@
         <v>387</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="76" spans="2:12" ht="157.19999999999999" thickBot="1" x14ac:dyDescent="0.45">
@@ -5180,7 +5180,7 @@
         <v>387</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="77" spans="2:12" ht="68.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5243,7 +5243,7 @@
         <v>387</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
     </row>
     <row r="79" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -5275,7 +5275,7 @@
         <v>387</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
     </row>
     <row r="80" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -5307,7 +5307,7 @@
         <v>387</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
     </row>
     <row r="81" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.4">
@@ -5339,7 +5339,7 @@
         <v>387</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
     </row>
     <row r="82" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -5371,7 +5371,7 @@
         <v>387</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
     </row>
     <row r="83" spans="2:11" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -5403,7 +5403,7 @@
         <v>387</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
     </row>
     <row r="84" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -5555,7 +5555,7 @@
         <v>387</v>
       </c>
       <c r="K88" s="29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="89" spans="2:11" ht="69.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5587,7 +5587,7 @@
         <v>387</v>
       </c>
       <c r="K89" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.4">

--- a/05 테스팅/테스트케이스_Palzo.xlsx
+++ b/05 테스팅/테스트케이스_Palzo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="431">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,11 +301,6 @@
     <t>ID : test
 PW : test
 E-mail : guswl9814@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID : ()_-+={[]}
-PW : ()_-+={[]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -449,11 +444,6 @@
   </si>
   <si>
     <t>로그인 창에서 ID/PW찾기 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안내 메시지 출력
--"회원가입이 완료되었습니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -752,14 +742,6 @@
 강의시간 : (NULL)
 강의실 : (NULL)
 단, 모든 입력은 TC0~과 같게 하고, 한번에 하나의 입력만 NULL로 둔다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과목명 : ~`!@#$
-담당교수 : %^&amp;*
-강의학기 : ()_-,+=
-강의시간 : {{}}, {[}], :;"'
-강의실 : &lt;,&gt;.?/|\</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -811,26 +793,6 @@
   </si>
   <si>
     <t>입력값에 특수문자가 포함되어 있을 경우에 대한 처리 확인 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do명 : `~!@#$%^&amp;*()_-+=
-과목선택 : 소프트웨어공학
-마감기한 : 2018,05,04
-실제마감일 : 2015,05,04
-중요도 : ★★★★★
-완료도 : ★★☆☆☆
-알림설정 : 1일전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do명 : {}[]|\:;"'&lt;,&gt;.?/
-과목선택 : 소프트웨어공학
-마감기한 : 2018,05,04
-실제마감일 : 2015,05,04
-중요도 : ★★★★★
-완료도 : ★★☆☆☆
-알림설정 : 1일전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1338,11 +1300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>To-do list  화면에 to-do 항목
-이 추가되어 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>To-do list  화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1373,13 +1330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID : ()_-+={[]}
-PW : ()_-+={[]}
-E-mail : 
-()_-+={[]}@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>안내 메시지 출력
 -"회원가입이 완료되었습니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1388,22 +1338,6 @@
     <t>ID : 123456789
 PW : 123456789
 E-mail : 123456789@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID : ~`!@#$%^&amp;* 
-PW : ~`!@#$%^&amp;*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID : |\:;"'&lt;, &gt;.?/
-PW : |\:;"'&lt;, &gt;.?/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID : |\:;"'&lt;, &gt;.?/
-PW : |\:;"'&lt;, &gt;.?/
-E-mail : smse.test6@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1453,7 +1387,507 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>To-do명 : {}[]|\:;"'&lt;,&gt;.?/
+    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>입력값에 한글(초성)이 포함되어 있을 경
+우에 대한 작동확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력값에 한글이 포함되어 있을 경우에 
+대한 작동확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력값에 대문자가 포함되어 있을 경우에 
+대한 에러검출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자로 이루어진 입력에 대한 작동확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : 韓國
+PW : 韓國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안내 메시지 출력
+-"회원가입이 완료되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : 韓國
+PW : 韓國
+E-mail : 韓國@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>UC009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 메시지 출력
+-"유효하지 않은 정보가 입력되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명이 변경된 To-do list  화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 과목이 삭제된 To-do list  화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list  화면에 to-do 항목이 추가되어 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list  화면에 to-do 항목이 추가되어 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 To-do가 삭제된 To-do list  화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list 화면에서 과목추가 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복되는 강의명이 입력되었을 경우에 대한 에러검출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC075</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.30</t>
+  </si>
+  <si>
+    <t>테스트케이스작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서현지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 테스트 수행결과 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서현지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : ~`!@#$%^&amp;* 
+PW : ~`!@#$%^&amp;*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : |\:;&lt;,?"'
+PW : |\:;&lt;,?"'
+(단 확실한 테스트를 위해 한글자씩도 모두 입력해보도록 한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : ()_-+={[]}./
+PW : ()_-+={[]}./</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : ()_-+={[]}./
+PW : ()_-+={[]}./
+E-mail : 
+()_-+={[]}./@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID : |\:;&lt;,?"'
+PW : |\:;&lt;,?"'
+E-mail :  |\:;&lt;,?"'@gmail.com
+(단 확실한 테스트를 위해 한글자씩도 모두 입력해보도록 한다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 메시지 출력
+-"유효하지 않은 정보가 입력되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2118.05.30</t>
+  </si>
+  <si>
+    <t>V.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 테스트 수행결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서현지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명 : ~`!@#$
+담당교수 : %^&amp;*
+강의학기 : ()_-+=
+강의시간 : {{}}, {[}],
+강의실 : &gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 메시지 출력
+-"유효하지 않은 정보가 입력되었습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do명 : `~!@#$%^&amp;*()_-+={[]}.&gt;
 과목선택 : 소프트웨어공학
 마감기한 : 2018,05,04
 실제마감일 : 2015,05,04
@@ -1463,413 +1897,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>입력값에 한글(초성)이 포함되어 있을 경
-우에 대한 작동확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력값에 한글이 포함되어 있을 경우에 
-대한 작동확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력값에 대문자가 포함되어 있을 경우에 
-대한 에러검출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한자로 이루어진 입력에 대한 작동확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID : 韓國
-PW : 韓國</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안내 메시지 출력
--"회원가입이 완료되었습니다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID : 韓國
-PW : 韓國
-E-mail : 韓國@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>UC009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에러 메시지 출력
--"유효하지 않은 정보가 입력되었습니다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과목명이 변경된 To-do list  화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 과목이 삭제된 To-do list  화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do list  화면에 to-do 항목이 추가되어 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do list  화면에 to-do 항목이 추가되어 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 To-do가 삭제된 To-do list  화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC031</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC036</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC037</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC039</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC043</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do list 화면에서 과목추가 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복되는 강의명이 입력되었을 경우에 대한 에러검출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC044</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC045</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC048</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC049</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC052</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC054</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC055</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC056</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC057</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC058</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC059</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC062</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC063</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC064</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC065</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC066</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC067</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC069</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC070</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC071</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC072</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC073</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC074</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC075</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC076</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC077</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC078</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC079</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC082</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC083</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.05.30</t>
-  </si>
-  <si>
-    <t>테스트케이스작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서현지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.05.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V.1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.05.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 테스트 수행결과 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서현지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에러 메시지 출력
--"잘못된 회원정보 입니다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1464</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1465</t>
+    <t>To-do명 : |\:;"'&lt;,?/
+과목선택 : 소프트웨어공학
+마감기한 : 2018,05,04
+실제마감일 : 2015,05,04
+중요도 : ★★★★★
+완료도 : ★★☆☆☆
+알림설정 : 1일전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1877,24 +1911,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#1467</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1468</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#1469</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#1470</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#1471</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#1472</t>
@@ -1917,14 +1938,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#1477</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1478</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#1479</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1949,6 +1962,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#1495</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#1486</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1974,10 +1991,6 @@
   </si>
   <si>
     <t>#1493</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1495</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2080,7 +2093,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2327,13 +2340,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2466,11 +2492,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2789,7 +2842,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2811,12 +2864,12 @@
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
     </row>
     <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="18"/>
@@ -2837,37 +2890,45 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
@@ -2983,11 +3044,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3000,7 +3061,7 @@
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="25.69921875" customWidth="1"/>
     <col min="8" max="8" width="26.59765625" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="9" max="9" width="8" style="45" customWidth="1"/>
     <col min="10" max="10" width="11.8984375" style="4" customWidth="1"/>
     <col min="11" max="11" width="17.69921875" customWidth="1"/>
     <col min="12" max="12" width="111" customWidth="1"/>
@@ -3024,7 +3085,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -3032,7 +3093,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3084,16 +3145,16 @@
         <v>25</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>310</v>
+      <c r="I8" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K8" s="1"/>
     </row>
@@ -3114,20 +3175,18 @@
         <v>36</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>315</v>
+      <c r="I9" s="46" t="s">
+        <v>383</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>397</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
@@ -3146,20 +3205,18 @@
         <v>37</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>316</v>
+      <c r="I10" s="46" t="s">
+        <v>384</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>398</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
@@ -3172,22 +3229,22 @@
         <v>39</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>310</v>
+      <c r="I11" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K11" s="1"/>
     </row>
@@ -3208,16 +3265,16 @@
         <v>41</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>310</v>
+      <c r="I12" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K12" s="1"/>
     </row>
@@ -3235,19 +3292,19 @@
         <v>29</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>284</v>
+        <v>387</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>310</v>
+      <c r="I13" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K13" s="1"/>
     </row>
@@ -3256,7 +3313,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>43</v>
@@ -3265,52 +3322,52 @@
         <v>29</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>66</v>
+        <v>390</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>310</v>
+      <c r="I14" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>285</v>
+        <v>389</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>302</v>
+        <v>32</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>394</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3321,25 +3378,25 @@
         <v>55</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H16" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>321</v>
+      <c r="I16" s="46" t="s">
+        <v>308</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K16" s="22"/>
     </row>
@@ -3348,28 +3405,28 @@
         <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>310</v>
+      <c r="I17" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K17" s="1"/>
     </row>
@@ -3378,10 +3435,10 @@
         <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>24</v>
@@ -3390,16 +3447,16 @@
         <v>46</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>310</v>
+      <c r="I18" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K18" s="1"/>
     </row>
@@ -3408,28 +3465,28 @@
         <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>310</v>
+      <c r="I19" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K19" s="1"/>
     </row>
@@ -3438,7 +3495,7 @@
         <v>58</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>47</v>
@@ -3450,16 +3507,16 @@
         <v>48</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="34" t="s">
-        <v>310</v>
+      <c r="I20" s="47" t="s">
+        <v>299</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K20" s="34"/>
     </row>
@@ -3468,28 +3525,28 @@
         <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>103</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>310</v>
+        <v>121</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K21" s="29"/>
     </row>
@@ -3498,28 +3555,28 @@
         <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>310</v>
+        <v>227</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K22" s="12"/>
     </row>
@@ -3528,28 +3585,28 @@
         <v>63</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>65</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>313</v>
+        <v>70</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>302</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K23" s="42"/>
     </row>
@@ -3558,28 +3615,28 @@
         <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>314</v>
+      <c r="I24" s="46" t="s">
+        <v>303</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K24" s="22"/>
     </row>
@@ -3588,28 +3645,28 @@
         <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>312</v>
+      <c r="I25" s="46" t="s">
+        <v>301</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K25" s="22"/>
     </row>
@@ -3618,28 +3675,28 @@
         <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H26" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>313</v>
+      <c r="I26" s="46" t="s">
+        <v>302</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K26" s="22"/>
     </row>
@@ -3648,28 +3705,28 @@
         <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>310</v>
+        <v>80</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K27" s="1"/>
     </row>
@@ -3678,28 +3735,28 @@
         <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="D28" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>314</v>
+      <c r="I28" s="46" t="s">
+        <v>303</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K28" s="22"/>
     </row>
@@ -3708,28 +3765,28 @@
         <v>63</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>310</v>
+        <v>81</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K29" s="1"/>
     </row>
@@ -3738,28 +3795,28 @@
         <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>317</v>
+        <v>70</v>
+      </c>
+      <c r="I30" s="46" t="s">
+        <v>304</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K30" s="22"/>
     </row>
@@ -3768,90 +3825,88 @@
         <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>281</v>
+        <v>391</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>314</v>
+        <v>79</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>303</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:11" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>286</v>
+        <v>392</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>302</v>
+        <v>393</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>395</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>400</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="K32" s="22"/>
     </row>
     <row r="33" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>312</v>
+        <v>165</v>
+      </c>
+      <c r="I33" s="46" t="s">
+        <v>301</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K33" s="22"/>
     </row>
@@ -3860,28 +3915,28 @@
         <v>60</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>313</v>
+        <v>275</v>
+      </c>
+      <c r="I34" s="46" t="s">
+        <v>302</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K34" s="22"/>
     </row>
@@ -3890,31 +3945,31 @@
         <v>60</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>313</v>
+        <v>275</v>
+      </c>
+      <c r="I35" s="46" t="s">
+        <v>302</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="67.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -3922,28 +3977,28 @@
         <v>21</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>314</v>
+        <v>297</v>
+      </c>
+      <c r="I36" s="46" t="s">
+        <v>303</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K36" s="22"/>
     </row>
@@ -3952,1658 +4007,1959 @@
         <v>61</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>47</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>312</v>
+        <v>297</v>
+      </c>
+      <c r="I37" s="48" t="s">
+        <v>301</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K37" s="43"/>
     </row>
     <row r="38" spans="2:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F38" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="G38" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="H38" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>310</v>
+      <c r="I38" s="44" t="s">
+        <v>299</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="2:11" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>310</v>
+        <v>229</v>
+      </c>
+      <c r="I39" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K39" s="12"/>
     </row>
     <row r="40" spans="2:11" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D40" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="F40" s="21" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>319</v>
+        <v>282</v>
+      </c>
+      <c r="I40" s="46" t="s">
+        <v>306</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K40" s="22"/>
     </row>
     <row r="41" spans="2:11" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F41" s="21" t="s">
-        <v>96</v>
-      </c>
       <c r="G41" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
+      </c>
+      <c r="I41" s="46" t="s">
+        <v>384</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K41" s="23" t="s">
-        <v>401</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="K41" s="23"/>
     </row>
     <row r="42" spans="2:11" ht="73.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H42" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="G42" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>321</v>
+      <c r="I42" s="46" t="s">
+        <v>308</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K42" s="22"/>
     </row>
     <row r="43" spans="2:11" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="G43" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="F43" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>127</v>
-      </c>
       <c r="H43" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>310</v>
+        <v>283</v>
+      </c>
+      <c r="I43" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D44" s="33" t="s">
         <v>64</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F44" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H44" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="G44" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="H44" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="I44" s="29" t="s">
-        <v>310</v>
+      <c r="I44" s="49" t="s">
+        <v>299</v>
       </c>
       <c r="J44" s="31" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K44" s="29"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>310</v>
+      <c r="I45" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="2:11" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>310</v>
+        <v>231</v>
+      </c>
+      <c r="I46" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="2:11" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D47" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H47" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E47" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="I47" s="25" t="s">
-        <v>302</v>
+      <c r="I47" s="44" t="s">
+        <v>397</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K47" s="42" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="87" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>158</v>
+        <v>405</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>310</v>
+        <v>248</v>
+      </c>
+      <c r="I48" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="2:12" ht="105" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>310</v>
+        <v>232</v>
+      </c>
+      <c r="I49" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="2:12" ht="122.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G50" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H50" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="H50" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>302</v>
+      <c r="I50" s="46" t="s">
+        <v>395</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K50" s="22" t="s">
-        <v>403</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="K50" s="22"/>
     </row>
     <row r="51" spans="2:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="D51" s="33" t="s">
         <v>64</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="I51" s="29" t="s">
-        <v>310</v>
+        <v>250</v>
+      </c>
+      <c r="I51" s="49" t="s">
+        <v>299</v>
       </c>
       <c r="J51" s="31" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K51" s="29"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B52" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>310</v>
+      <c r="I52" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="2:12" ht="122.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D53" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>302</v>
+        <v>270</v>
+      </c>
+      <c r="I53" s="46" t="s">
+        <v>291</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K53" s="23" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="174" x14ac:dyDescent="0.4">
       <c r="B54" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="D54" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E54" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="H54" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="I54" s="25" t="s">
-        <v>302</v>
+      <c r="I54" s="44" t="s">
+        <v>291</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K54" s="42" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="L54" s="37"/>
     </row>
     <row r="55" spans="2:12" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H55" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="I55" s="46" t="s">
         <v>291</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="J55" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K55" s="23" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="2:12" ht="174" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="D56" s="21" t="s">
         <v>44</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
+      </c>
+      <c r="I56" s="46" t="s">
+        <v>397</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="K56" s="23" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="122.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G57" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H57" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="H57" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>302</v>
+      <c r="I57" s="46" t="s">
+        <v>291</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="58" spans="2:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B58" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="F58" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="G58" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="39" t="s">
-        <v>357</v>
-      </c>
-      <c r="D58" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="F58" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="G58" s="39" t="s">
-        <v>149</v>
-      </c>
       <c r="H58" s="40" t="s">
-        <v>323</v>
-      </c>
-      <c r="I58" s="39" t="s">
-        <v>312</v>
+        <v>310</v>
+      </c>
+      <c r="I58" s="50" t="s">
+        <v>301</v>
       </c>
       <c r="J58" s="41" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K58" s="39"/>
       <c r="L58" s="38"/>
     </row>
     <row r="59" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B59" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E59" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="H59" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G59" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>310</v>
+      <c r="I59" s="44" t="s">
+        <v>299</v>
       </c>
       <c r="J59" s="25" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K59" s="12"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B60" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>310</v>
+      <c r="I60" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="2:12" ht="205.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D61" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>302</v>
+        <v>234</v>
+      </c>
+      <c r="I61" s="46" t="s">
+        <v>291</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="2:12" ht="226.2" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="I62" s="25" t="s">
-        <v>302</v>
+        <v>133</v>
+      </c>
+      <c r="I62" s="44" t="s">
+        <v>388</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="K62" s="12" t="s">
-        <v>410</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="K62" s="12"/>
     </row>
     <row r="63" spans="2:12" ht="202.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="I63" s="25" t="s">
-        <v>310</v>
+        <v>234</v>
+      </c>
+      <c r="I63" s="44" t="s">
+        <v>299</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K63" s="12"/>
     </row>
     <row r="64" spans="2:12" ht="198" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>167</v>
+        <v>407</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>310</v>
+        <v>269</v>
+      </c>
+      <c r="I64" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K64" s="1"/>
     </row>
     <row r="65" spans="2:12" ht="203.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>297</v>
+        <v>408</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>315</v>
+        <v>406</v>
+      </c>
+      <c r="I65" s="46" t="s">
+        <v>400</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>411</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="K65" s="1"/>
     </row>
     <row r="66" spans="2:12" ht="180.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H66" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="I66" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K66" s="1"/>
     </row>
     <row r="67" spans="2:12" ht="183.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B67" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="D67" s="26" t="s">
         <v>44</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>310</v>
+        <v>312</v>
+      </c>
+      <c r="I67" s="48" t="s">
+        <v>299</v>
       </c>
       <c r="J67" s="27" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K67" s="9"/>
     </row>
     <row r="68" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>310</v>
+        <v>172</v>
+      </c>
+      <c r="I68" s="44" t="s">
+        <v>299</v>
       </c>
       <c r="J68" s="25" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B69" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>310</v>
+      <c r="I69" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K69" s="1"/>
     </row>
     <row r="70" spans="2:12" ht="228.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="D70" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>302</v>
+        <v>234</v>
+      </c>
+      <c r="I70" s="46" t="s">
+        <v>291</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="226.2" x14ac:dyDescent="0.4">
       <c r="B71" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="I71" s="25" t="s">
-        <v>302</v>
+        <v>133</v>
+      </c>
+      <c r="I71" s="44" t="s">
+        <v>291</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="72" spans="2:12" ht="174" x14ac:dyDescent="0.4">
       <c r="B72" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="D72" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="H72" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="I72" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="K72" s="12"/>
+    </row>
+    <row r="73" spans="2:12" ht="191.4" x14ac:dyDescent="0.4">
+      <c r="B73" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="I73" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="B74" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D74" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="E72" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="F72" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="G72" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="H72" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="I72" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="J72" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="K72" s="12"/>
-    </row>
-    <row r="73" spans="2:12" ht="174" x14ac:dyDescent="0.4">
-      <c r="B73" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="F73" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="G73" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="H73" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="I73" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" ht="174" x14ac:dyDescent="0.4">
-      <c r="B74" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>166</v>
-      </c>
       <c r="E74" s="21" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>168</v>
+        <v>408</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="I74" s="25" t="s">
-        <v>302</v>
+        <v>406</v>
+      </c>
+      <c r="I74" s="44" t="s">
+        <v>291</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="2:12" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B75" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F75" s="21" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H75" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>302</v>
+        <v>234</v>
+      </c>
+      <c r="I75" s="46" t="s">
+        <v>291</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="76" spans="2:12" ht="157.19999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B76" s="9" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="D76" s="26" t="s">
         <v>44</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="F76" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G76" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="G76" s="26" t="s">
-        <v>178</v>
-      </c>
       <c r="H76" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>302</v>
+        <v>169</v>
+      </c>
+      <c r="I76" s="48" t="s">
+        <v>291</v>
       </c>
       <c r="J76" s="27" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="77" spans="2:12" ht="68.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="34" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="D77" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="F77" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H77" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="I77" s="34" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="I77" s="47" t="s">
+        <v>301</v>
       </c>
       <c r="J77" s="36" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K77" s="34"/>
       <c r="L77" s="38"/>
     </row>
     <row r="78" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B78" s="12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="I78" s="12" t="s">
-        <v>302</v>
+        <v>181</v>
+      </c>
+      <c r="I78" s="44" t="s">
+        <v>291</v>
       </c>
       <c r="J78" s="25" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="79" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B79" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H79" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>302</v>
+        <v>182</v>
+      </c>
+      <c r="I79" s="46" t="s">
+        <v>291</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="80" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B80" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H80" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>302</v>
+        <v>185</v>
+      </c>
+      <c r="I80" s="46" t="s">
+        <v>291</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="81" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H81" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>302</v>
+        <v>189</v>
+      </c>
+      <c r="I81" s="46" t="s">
+        <v>291</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="82" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B82" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H82" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>302</v>
+        <v>193</v>
+      </c>
+      <c r="I82" s="46" t="s">
+        <v>291</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="83" spans="2:11" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F83" s="26" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G83" s="26" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H83" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>302</v>
+        <v>197</v>
+      </c>
+      <c r="I83" s="48" t="s">
+        <v>291</v>
       </c>
       <c r="J83" s="27" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="84" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B84" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G84" s="24" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="I84" s="12" t="s">
-        <v>310</v>
+        <v>235</v>
+      </c>
+      <c r="I84" s="44" t="s">
+        <v>299</v>
       </c>
       <c r="J84" s="25" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K84" s="12"/>
     </row>
     <row r="85" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B85" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G85" s="21" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H85" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
+      </c>
+      <c r="I85" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K85" s="1"/>
     </row>
     <row r="86" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B86" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F86" s="21" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G86" s="21" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H86" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>310</v>
+        <v>237</v>
+      </c>
+      <c r="I86" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="2:11" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B87" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F87" s="26" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G87" s="26" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H87" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>310</v>
+        <v>238</v>
+      </c>
+      <c r="I87" s="48" t="s">
+        <v>299</v>
       </c>
       <c r="J87" s="27" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="K87" s="9"/>
     </row>
     <row r="88" spans="2:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="29" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D88" s="29" t="s">
         <v>23</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F88" s="30" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G88" s="30" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="I88" s="29" t="s">
-        <v>302</v>
+        <v>268</v>
+      </c>
+      <c r="I88" s="49" t="s">
+        <v>291</v>
       </c>
       <c r="J88" s="31" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="K88" s="29" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" ht="69.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B89" s="34" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D89" s="34" t="s">
         <v>23</v>
       </c>
       <c r="E89" s="34" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F89" s="35" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G89" s="35" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H89" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="I89" s="34" t="s">
-        <v>302</v>
+        <v>239</v>
+      </c>
+      <c r="I89" s="47" t="s">
+        <v>291</v>
       </c>
       <c r="J89" s="36" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K89" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B90" s="38" t="e">
-        <f>+G91B9B90:J91</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="45"/>
-      <c r="J90"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="52"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="50"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="54"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J91"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="46"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="46"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="46"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="46"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="46"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="46"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="46"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="46"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="46"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="46"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="46"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="46"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="46"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="46"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="46"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="46"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="46"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="46"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="46"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="46"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="46"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/05 테스팅/테스트케이스_Palzo.xlsx
+++ b/05 테스팅/테스트케이스_Palzo.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="441">
   <si>
     <t>TestCase ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -643,35 +643,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>과목명 : test
-담당교수 : test
-강의학기 : test, test
-강의시간 : 월요일, test, test
-강의실 : test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과목명 : (NULL)
-담당교수 : (NULL)
-강의학기 : (NULL)
-강의시간 : 월요일, (NULL)
-강의실 : (NULL)
-단, 모든 입력은 TC0~과 같게 하고, 한번에 하나의 입력만 NULL로 둔다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 각 입력박스를 클릭한다.
 2. 입력 값을 넣는다.
 3. 등록을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과목명 : TEST
-담당교수 : TEST
-강의학기 : TEST, TEST
-강의시간 : 월요일, TEST, TEST
-강의실 : TEST
-단, 모든 입력은 TC0~과 같게 하고, 한번에 하나의 입력만 TEST로 둔다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -685,10 +659,6 @@
 강의학기 : 2018, 1
 강의시간 : 화요일, 15, 18
 강의실 : G312</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복되는 입력값이 입력되었을 경우에 대한 에러검출 1 (강의명)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -831,11 +801,6 @@
 중요도 : ★★★★★
 완료도 : ★★☆☆☆
 알림설정 : 1일전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에러 메시지 출력
--"유효하지 않은 정보가 입력되었습니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1354,14 +1319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>과목명 : 소프트웨어공학
-담당교수 : 테스트
-강의학기 : 2017, 1
-강의시간 : 화요일, 10, 12
-강의실 : G312</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>과목명이 변경된 To-do list  화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1401,9 +1358,6 @@
   <si>
     <t>To-do list 화면에서 변경/삭제할 To-do 버튼 클릭</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
   </si>
   <si>
     <t>입력값에 한글(초성)이 포함되어 있을 경
@@ -1464,10 +1418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1614,10 +1564,6 @@
   </si>
   <si>
     <t>TC050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC051</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1831,10 +1777,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1843,23 +1785,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018.05.31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018.05.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pass</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2118.05.30</t>
   </si>
   <si>
     <t>V.1.2</t>
@@ -1907,90 +1838,234 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#1466</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1469</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1471</t>
-  </si>
-  <si>
-    <t>#1472</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1473</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1474</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1475</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1476</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1479</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1481</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1482</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1483</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1484</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1495</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1486</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1487</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1488</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1489</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1490</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1492</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1493</t>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당교수 : 테스트
+강의학기 : 2017, 1
+강의시간 : 화요일, 10, 12
+강의실 : G312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당교수 : (NULL)
+강의학기 : (NULL)
+강의시간 : 월요일, (NULL)
+강의실 : (NULL)
+단, 모든 입력은 TC0~과 같게 하고, 한번에 하나의 입력만 NULL로 둔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당교수 : test
+강의학기 : test, test
+강의시간 : 월요일, test, test
+강의실 : test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당교수 : TEST
+강의학기 : TEST, TEST
+강의시간 : 월요일, TEST, TEST
+강의실 : TEST
+단, 모든 입력은 TC0~과 같게 하고, 한번에 하나의 입력만 TEST로 둔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목선택 : (NULL)
+마감기한 : (NULL)
+실제마감일 : (NULL)
+중요도 : ★★★★★
+완료도 : ★★☆☆☆
+알림설정 : 1일전
+(단, 모든 입력은 TC0~과 같게 하고, 한번에 하나의 입력만 NULL로 둔다. 중요도, 완료도, 알림설정의 경우 생각하지 않은다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목선택 : 소프트웨어공학
+마감기한 : 2018,05,04
+실제마감일 : 2015,05,04
+중요도 : ☆☆☆☆☆
+완료도 : ☆☆☆☆☆
+알림설정 : 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목선택 :`~!@#$%^&amp;*()_-+={[]}.&gt;
+마감기한 : 2018,05,04
+실제마감일 : 2015,05,04
+중요도 : ★★★★★
+완료도 : ★★☆☆☆
+알림설정 : 1일전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목선택 : |\:;"'&lt;,?/
+마감기한 : 2018,05,04
+실제마감일 : 2015,05,04
+중요도 : ★★★★★
+완료도 : ★★☆☆☆
+알림설정 : 1일전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목선택 : 데이터베이스
+마감기한 : 2018,05,04
+실제마감일 : 2015,05,04
+중요도 : ★★★★★
+완료도 : ★★☆☆☆
+알림설정 : 1일전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list  화면에 to-do 항목이 변경되어 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list 화면에 수강과목이 변경되어 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목선택 : soft
+마감기한 : 2018,05,04
+실제마감일 : 2015,05,04
+중요도 : ★★★★★
+완료도 : ★★☆☆☆
+알림설정 : 1일전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목선택 : SOFT
+마감기한 : 2018,05,04
+실제마감일 : 2015,05,04
+중요도 : ★★★★★
+완료도 : ★★☆☆☆
+알림설정 : 1일전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list  화면에 to-do 항목이 변경되어 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list  화면에 to-do 항목이 변경되어 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.06.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC009, UC019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC009, UC019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC009, UC019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC009, UC019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC010, UC019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC010, UC019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC010, UC019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상 작동 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do list 등록, 변경 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림 설정을 있다 로 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 알림설정 스크롤패널을 있다로 설정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안내 메시지 출력
+-"&lt;과목명&gt; '투두명'의 실제 마감기한이 1일 남았습니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종본</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2513,9 +2588,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2524,6 +2596,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2842,7 +2917,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2864,12 +2939,12 @@
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
     </row>
     <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="18"/>
@@ -2890,50 +2965,56 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -3044,11 +3125,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3077,7 +3158,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -3085,7 +3166,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -3093,7 +3174,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3151,10 +3232,10 @@
         <v>27</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K8" s="1"/>
     </row>
@@ -3181,10 +3262,10 @@
         <v>38</v>
       </c>
       <c r="I9" s="46" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="K9" s="22"/>
     </row>
@@ -3211,10 +3292,10 @@
         <v>38</v>
       </c>
       <c r="I10" s="46" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="K10" s="22"/>
     </row>
@@ -3229,7 +3310,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>31</v>
@@ -3241,10 +3322,10 @@
         <v>33</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K11" s="1"/>
     </row>
@@ -3271,10 +3352,10 @@
         <v>32</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K12" s="1"/>
     </row>
@@ -3292,7 +3373,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>108</v>
@@ -3301,10 +3382,10 @@
         <v>49</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K13" s="1"/>
     </row>
@@ -3322,7 +3403,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>108</v>
@@ -3331,10 +3412,10 @@
         <v>27</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K14" s="1"/>
     </row>
@@ -3352,7 +3433,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>107</v>
@@ -3361,14 +3442,12 @@
         <v>32</v>
       </c>
       <c r="I15" s="46" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>409</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
@@ -3378,7 +3457,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>24</v>
@@ -3393,10 +3472,10 @@
         <v>49</v>
       </c>
       <c r="I16" s="46" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K16" s="22"/>
     </row>
@@ -3408,7 +3487,7 @@
         <v>68</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>24</v>
@@ -3423,10 +3502,10 @@
         <v>27</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K17" s="1"/>
     </row>
@@ -3438,7 +3517,7 @@
         <v>74</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>24</v>
@@ -3453,10 +3532,10 @@
         <v>27</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K18" s="1"/>
     </row>
@@ -3468,13 +3547,13 @@
         <v>69</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>105</v>
@@ -3483,10 +3562,10 @@
         <v>27</v>
       </c>
       <c r="I19" s="46" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K19" s="1"/>
     </row>
@@ -3495,7 +3574,7 @@
         <v>58</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>47</v>
@@ -3513,10 +3592,10 @@
         <v>49</v>
       </c>
       <c r="I20" s="47" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K20" s="34"/>
     </row>
@@ -3525,7 +3604,7 @@
         <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>96</v>
@@ -3543,10 +3622,10 @@
         <v>121</v>
       </c>
       <c r="I21" s="46" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K21" s="29"/>
     </row>
@@ -3555,28 +3634,28 @@
         <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K22" s="12"/>
     </row>
@@ -3585,7 +3664,7 @@
         <v>63</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>64</v>
@@ -3597,16 +3676,16 @@
         <v>65</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H23" s="24" t="s">
         <v>70</v>
       </c>
       <c r="I23" s="44" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K23" s="42"/>
     </row>
@@ -3615,7 +3694,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>34</v>
@@ -3624,19 +3703,19 @@
         <v>89</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H24" s="21" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="46" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K24" s="22"/>
     </row>
@@ -3645,7 +3724,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>35</v>
@@ -3654,19 +3733,19 @@
         <v>89</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="46" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K25" s="22"/>
     </row>
@@ -3675,7 +3754,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>62</v>
@@ -3684,19 +3763,19 @@
         <v>90</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H26" s="21" t="s">
         <v>38</v>
       </c>
       <c r="I26" s="46" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K26" s="22"/>
     </row>
@@ -3705,7 +3784,7 @@
         <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>75</v>
@@ -3714,19 +3793,19 @@
         <v>88</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>80</v>
       </c>
       <c r="I27" s="46" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K27" s="1"/>
     </row>
@@ -3735,7 +3814,7 @@
         <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>76</v>
@@ -3747,16 +3826,16 @@
         <v>82</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>77</v>
       </c>
       <c r="I28" s="46" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K28" s="22"/>
     </row>
@@ -3765,7 +3844,7 @@
         <v>63</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>78</v>
@@ -3774,19 +3853,19 @@
         <v>89</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H29" s="21" t="s">
         <v>81</v>
       </c>
       <c r="I29" s="46" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K29" s="1"/>
     </row>
@@ -3795,7 +3874,7 @@
         <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>42</v>
@@ -3804,19 +3883,19 @@
         <v>91</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H30" s="23" t="s">
         <v>70</v>
       </c>
       <c r="I30" s="46" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K30" s="22"/>
     </row>
@@ -3825,7 +3904,7 @@
         <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>43</v>
@@ -3834,19 +3913,19 @@
         <v>92</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H31" s="23" t="s">
         <v>79</v>
       </c>
       <c r="I31" s="46" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K31" s="22"/>
     </row>
@@ -3864,19 +3943,19 @@
         <v>91</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="I32" s="46" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="K32" s="22"/>
     </row>
@@ -3897,16 +3976,16 @@
         <v>119</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I33" s="46" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K33" s="22"/>
     </row>
@@ -3924,19 +4003,19 @@
         <v>91</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I34" s="46" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K34" s="22"/>
     </row>
@@ -3945,7 +4024,7 @@
         <v>60</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D35" s="21" t="s">
         <v>84</v>
@@ -3954,51 +4033,49 @@
         <v>93</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="I35" s="46" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="K35" s="22" t="s">
-        <v>305</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="K35" s="22"/>
     </row>
     <row r="36" spans="2:11" ht="67.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G36" s="21" t="s">
         <v>105</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="I36" s="46" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K36" s="22"/>
     </row>
@@ -4007,7 +4084,7 @@
         <v>61</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>47</v>
@@ -4016,19 +4093,19 @@
         <v>89</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>120</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="I37" s="48" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K37" s="43"/>
     </row>
@@ -4037,7 +4114,7 @@
         <v>98</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>96</v>
@@ -4055,10 +4132,10 @@
         <v>113</v>
       </c>
       <c r="I38" s="44" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K38" s="12"/>
     </row>
@@ -4067,28 +4144,28 @@
         <v>98</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I39" s="46" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K39" s="12"/>
     </row>
@@ -4097,7 +4174,7 @@
         <v>87</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D40" s="21" t="s">
         <v>96</v>
@@ -4106,19 +4183,19 @@
         <v>97</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>110</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="I40" s="46" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K40" s="22"/>
     </row>
@@ -4127,10 +4204,10 @@
         <v>87</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>94</v>
@@ -4142,13 +4219,13 @@
         <v>116</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="I41" s="46" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="K41" s="23"/>
     </row>
@@ -4157,7 +4234,7 @@
         <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>114</v>
@@ -4175,10 +4252,10 @@
         <v>117</v>
       </c>
       <c r="I42" s="46" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K42" s="22"/>
     </row>
@@ -4187,7 +4264,7 @@
         <v>118</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D43" s="21" t="s">
         <v>122</v>
@@ -4196,19 +4273,19 @@
         <v>123</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>125</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="I43" s="46" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K43" s="1"/>
     </row>
@@ -4217,13 +4294,13 @@
         <v>126</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D44" s="33" t="s">
         <v>64</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F44" s="33" t="s">
         <v>128</v>
@@ -4235,19 +4312,19 @@
         <v>130</v>
       </c>
       <c r="I44" s="49" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J44" s="31" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K44" s="29"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>96</v>
@@ -4256,34 +4333,34 @@
         <v>130</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I45" s="46" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="2:11" ht="121.8" x14ac:dyDescent="0.4">
       <c r="B46" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F46" s="21" t="s">
         <v>132</v>
@@ -4292,31 +4369,31 @@
         <v>127</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I46" s="46" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="2:11" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>131</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G47" s="24" t="s">
         <v>127</v>
@@ -4325,212 +4402,208 @@
         <v>133</v>
       </c>
       <c r="I47" s="44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="K47" s="42" t="s">
-        <v>410</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="K47" s="42"/>
     </row>
     <row r="48" spans="2:11" ht="87" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D48" s="21" t="s">
         <v>135</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="G48" s="21" t="s">
         <v>134</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I48" s="46" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="2:12" ht="105" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D49" s="21" t="s">
         <v>136</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>134</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I49" s="46" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="2:12" ht="122.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I50" s="46" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="K50" s="22"/>
     </row>
     <row r="51" spans="2:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="29" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D51" s="33" t="s">
         <v>64</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I51" s="49" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J51" s="31" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K51" s="29"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B52" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I52" s="46" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="2:12" ht="122.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:12" ht="87.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D53" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>280</v>
+        <v>398</v>
       </c>
       <c r="G53" s="21" t="s">
         <v>127</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="I53" s="46" t="s">
-        <v>291</v>
+        <v>406</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="K53" s="23" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" ht="174" x14ac:dyDescent="0.4">
+        <v>397</v>
+      </c>
+      <c r="K53" s="23"/>
+    </row>
+    <row r="54" spans="2:12" ht="156.6" x14ac:dyDescent="0.4">
       <c r="B54" s="33" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>131</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>138</v>
+        <v>399</v>
       </c>
       <c r="G54" s="24" t="s">
         <v>127</v>
@@ -4539,1127 +4612,1089 @@
         <v>133</v>
       </c>
       <c r="I54" s="44" t="s">
-        <v>291</v>
+        <v>407</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="K54" s="42" t="s">
-        <v>412</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="K54" s="42"/>
       <c r="L54" s="37"/>
     </row>
-    <row r="55" spans="2:12" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:12" ht="87" x14ac:dyDescent="0.4">
       <c r="B55" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>136</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>137</v>
+        <v>400</v>
       </c>
       <c r="G55" s="21" t="s">
         <v>134</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="I55" s="46" t="s">
-        <v>291</v>
+        <v>407</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="K55" s="23" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" ht="174" x14ac:dyDescent="0.4">
+        <v>409</v>
+      </c>
+      <c r="K55" s="23"/>
+    </row>
+    <row r="56" spans="2:12" ht="180" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D56" s="21" t="s">
         <v>44</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>140</v>
+        <v>401</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="I56" s="46" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="K56" s="23" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" ht="122.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="K56" s="23"/>
+    </row>
+    <row r="57" spans="2:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="F57" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G57" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H57" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="I57" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="J57" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="K57" s="39"/>
+      <c r="L57" s="38"/>
+    </row>
+    <row r="58" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="G57" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="H57" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="I57" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="K57" s="23" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="39" t="s">
+      <c r="C58" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C58" s="39" t="s">
-        <v>344</v>
-      </c>
-      <c r="D58" s="39" t="s">
+      <c r="F58" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I58" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="K58" s="12"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B59" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E58" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="F58" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="G58" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="H58" s="40" t="s">
-        <v>310</v>
-      </c>
-      <c r="I58" s="50" t="s">
-        <v>301</v>
-      </c>
-      <c r="J58" s="41" t="s">
-        <v>374</v>
-      </c>
-      <c r="K58" s="39"/>
-      <c r="L58" s="38"/>
-    </row>
-    <row r="59" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D59" s="12" t="s">
+      <c r="E59" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="2:12" ht="205.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="D60" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E59" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="I59" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="J59" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="K59" s="12"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B60" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>225</v>
+      <c r="E60" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>155</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>26</v>
+        <v>127</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>229</v>
       </c>
       <c r="I60" s="46" t="s">
-        <v>299</v>
+        <v>411</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="2:12" ht="205.95" customHeight="1" x14ac:dyDescent="0.4">
+        <v>410</v>
+      </c>
+      <c r="K60" s="22"/>
+    </row>
+    <row r="61" spans="2:12" ht="226.2" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
-        <v>148</v>
+        <v>427</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="G61" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G61" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="H61" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="I61" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="K61" s="22" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" ht="226.2" x14ac:dyDescent="0.4">
+      <c r="H61" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I61" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="K61" s="12"/>
+    </row>
+    <row r="62" spans="2:12" ht="202.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="1" t="s">
-        <v>148</v>
+        <v>428</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>158</v>
+        <v>340</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>156</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G62" s="24" t="s">
         <v>127</v>
       </c>
       <c r="H62" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="I62" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="K62" s="12"/>
+    </row>
+    <row r="63" spans="2:12" ht="198" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="I63" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="2:12" ht="203.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="I64" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="2:12" ht="180.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="I65" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="2:12" ht="183.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H66" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="I66" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="J66" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="K66" s="9"/>
+    </row>
+    <row r="67" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="I67" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="J67" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="K67" s="12"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B68" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I68" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="2:12" ht="228.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="H69" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="I69" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="2:12" ht="231" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H70" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="I62" s="44" t="s">
-        <v>388</v>
-      </c>
-      <c r="J62" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="K62" s="12"/>
-    </row>
-    <row r="63" spans="2:12" ht="202.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C63" s="28" t="s">
+      <c r="I70" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="K70" s="12"/>
+    </row>
+    <row r="71" spans="2:12" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B71" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D63" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="F63" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="G63" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H63" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I63" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="J63" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="K63" s="12"/>
-    </row>
-    <row r="64" spans="2:12" ht="198" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C64" s="28" t="s">
+      <c r="D71" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="I71" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="K71" s="12"/>
+    </row>
+    <row r="72" spans="2:12" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="B72" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D64" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F64" s="21" t="s">
+      <c r="D72" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="H72" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="I72" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="2:12" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B73" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="I73" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="2:12" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="B74" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="H74" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="I74" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="2:12" ht="122.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="G75" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="H75" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="I75" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="G64" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="I64" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="2:12" ht="203.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="G65" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="H65" s="21" t="s">
+      <c r="J75" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="K75" s="9"/>
+    </row>
+    <row r="76" spans="2:12" ht="68.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="D76" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E76" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="F76" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="G76" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="H76" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="I76" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="J76" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="K76" s="34"/>
+      <c r="L76" s="38"/>
+    </row>
+    <row r="77" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B77" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="I77" s="44" t="s">
         <v>406</v>
       </c>
-      <c r="I65" s="46" t="s">
-        <v>400</v>
-      </c>
-      <c r="J65" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="2:12" ht="180.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G66" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H66" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="I66" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="J66" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="2:12" ht="183.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="F67" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="G67" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="H67" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="I67" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="J67" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="K67" s="9"/>
-    </row>
-    <row r="68" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="12" t="s">
+      <c r="J77" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="K77" s="12"/>
+    </row>
+    <row r="78" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B78" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="D68" s="12" t="s">
+      <c r="C78" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E68" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F68" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="G68" s="24" t="s">
+      <c r="E78" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F78" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="H68" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="I68" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="J68" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="K68" s="12"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B69" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G69" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I69" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="2:12" ht="228.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E70" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="F70" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="G70" s="21" t="s">
+      <c r="G78" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="H70" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="I70" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="J70" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" ht="226.2" x14ac:dyDescent="0.4">
-      <c r="B71" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E71" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="F71" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="G71" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="H71" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="I71" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="J71" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="K71" s="12" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" ht="174" x14ac:dyDescent="0.4">
-      <c r="B72" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="E72" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="F72" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="G72" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="H72" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I72" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="J72" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="K72" s="12"/>
-    </row>
-    <row r="73" spans="2:12" ht="191.4" x14ac:dyDescent="0.4">
-      <c r="B73" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="F73" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="G73" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="H73" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="I73" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B74" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="F74" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="G74" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="H74" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="I74" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="J74" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="K74" s="1" t="s">
+      <c r="H78" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="I78" s="46" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="B75" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D75" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="F75" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="G75" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="H75" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="I75" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="K75" s="1" t="s">
+      <c r="J78" s="5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" ht="157.19999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="F76" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="G76" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="H76" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="I76" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="J76" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="K76" s="9" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" ht="68.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="C77" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="D77" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E77" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="F77" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="G77" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="H77" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="I77" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="J77" s="36" t="s">
-        <v>374</v>
-      </c>
-      <c r="K77" s="34"/>
-      <c r="L77" s="38"/>
-    </row>
-    <row r="78" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B78" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="F78" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="G78" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="H78" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="I78" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="J78" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="K78" s="12" t="s">
-        <v>423</v>
-      </c>
+      <c r="K78" s="1"/>
     </row>
     <row r="79" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B79" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F79" s="21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H79" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I79" s="46" t="s">
-        <v>291</v>
+        <v>406</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>422</v>
+      </c>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="2:12" ht="90" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F80" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G80" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="G80" s="21" t="s">
+      <c r="H80" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="H80" s="21" t="s">
+      <c r="I80" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B81" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I80" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="C81" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F81" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G81" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="G81" s="21" t="s">
+      <c r="H81" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="H81" s="21" t="s">
+      <c r="I81" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="2:11" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="I81" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F82" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="G82" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="H82" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="I82" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="J82" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="K82" s="9"/>
+    </row>
+    <row r="83" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B83" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D83" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F82" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="G82" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="H82" s="21" t="s">
+      <c r="E83" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="I83" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="J83" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="K83" s="12"/>
+    </row>
+    <row r="84" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B84" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I82" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="D83" s="9" t="s">
+      <c r="C84" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E83" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F83" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="G83" s="26" t="s">
+      <c r="E84" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F84" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="H83" s="26" t="s">
+      <c r="G84" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="I83" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="J83" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="K83" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B84" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="F84" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="G84" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="H84" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="I84" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="J84" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="K84" s="12"/>
+      <c r="H84" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="I84" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="K84" s="1"/>
     </row>
     <row r="85" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B85" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F85" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G85" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="H85" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="I85" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="2:11" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F86" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="G86" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H86" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="I86" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="J86" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="K86" s="9"/>
+    </row>
+    <row r="87" spans="2:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B87" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="G85" s="21" t="s">
+      <c r="C87" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="F87" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="H85" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="I85" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B86" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="F86" s="21" t="s">
+      <c r="G87" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="G86" s="21" t="s">
+      <c r="H87" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="I87" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="J87" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="K87" s="29"/>
+    </row>
+    <row r="88" spans="2:11" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="C88" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="D88" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="F88" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="H86" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="I86" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="2:11" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F87" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="G87" s="26" t="s">
+      <c r="G88" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="H87" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="I87" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="J87" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="K87" s="9"/>
-    </row>
-    <row r="88" spans="2:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="C88" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="D88" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E88" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="F88" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G88" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="H88" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="I88" s="49" t="s">
-        <v>291</v>
-      </c>
-      <c r="J88" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="K88" s="29" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="D89" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E89" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="F89" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="G89" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="H89" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="I89" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="J89" s="36" t="s">
-        <v>385</v>
-      </c>
-      <c r="K89" s="34" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="52"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="52"/>
-      <c r="E90" s="52"/>
-      <c r="F90" s="53"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="50"/>
-      <c r="J90" s="39"/>
-      <c r="K90" s="54"/>
+      <c r="H88" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="I88" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="J88" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="K88" s="34"/>
+    </row>
+    <row r="89" spans="2:11" ht="52.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="51" t="s">
+        <v>425</v>
+      </c>
+      <c r="C89" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="D89" s="51" t="s">
+        <v>434</v>
+      </c>
+      <c r="E89" s="51" t="s">
+        <v>435</v>
+      </c>
+      <c r="F89" s="52" t="s">
+        <v>436</v>
+      </c>
+      <c r="G89" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="H89" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="I89" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="J89" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="K89" s="53"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="1"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B92" s="1"/>
@@ -5949,18 +5984,6 @@
       <c r="J115" s="5"/>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="46"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
